--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,37 +488,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Кассир в магазин игрушек (оплата каждый день)</t>
+          <t>Кассир повар</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2600</v>
+        <v>45000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Условия: - Свободный или сменный график (по часам с 10 до 21); - Ставка при свободном графике — 2660 руб/смена; - Ставка при графике 5/2 — 2870 руб/смена; - Оплата каждый день (первая смена оплачивается при расторжении договора); - Магазины находятся: Москва и МО (магазины подбирает менеджер в зависимости от Вашего места проживания и от заявки). Обязанности: - Работа на кассе в магазина детских товаров. Требования: - Наличие медицинской книжки или желание её оформить (с оформлением помогаем). Бонус ЗА Приведи Друга — 1500 руб. Описание работодателя: Мы обеспечиваем стабильность, предлагая лучшие условия по рынку с Ежедневной Оплатой и Свободным Графиком. Если Вам по каким-то причинам не подошёл объект, не нужно тратить своё время на утомительные поиски нового. Персональный менеджер нашей компании подберёт для Вас предложения, которые подойдут именно Вам. Оставляйте отклик и наш менеджер с Вами свяжется!</t>
+          <t>Присоединяйся к нашей команде в должности: «Кассир Rostic's (Ростикс)». Нам важно то, что важно тебе, поэтому: Мы предлагаем: — стабильную заработную плату, отсутствие штрафов; — ежемесячные премии, приглашай работать друзей — получай 10000 руб. За каждого трудоустроенного*; — оформление по ТК РФ; — гибкий график и работа рядом с домом; — быстрый и понятный карьерный рост; — работа в дружном коллективе; — интересное обучение; — насыщенная корпоративная жизнь; — бесплатные обеды; Мы ценим: — активность и открытость; — ответственность и пунктуальность; — желание работать в команде и развиваться; — приветливость и доброжелательность; Что тебе предстоит делать: — обслуживать Гостей, предоставляя им незабываемый сервис (прием и выдача заказов); — работа на кухне (приготовление знаменитой курочки, сэндвичей) по стандартам; — поддержание чистоты на рабочем месте; *выплата производится в два этапа, подробно расскажем на собеседовании. Наша вакансия также доступна кандидатам с гражданством: Беларусь, Киргизия, Таджикистан, Узбекистан, Афганистан, Алжир, Тунис, Пакистан, Армения, Грузия, Молдова, Куба, Египет, Индия, Камерун, Бангладеш. Мы рассматриваем кандидатов без опыта работы — всему обучим! Опыт работы в «Kfc», «Макдональдс», «Вкусно и Точка», «Бургер Кинг», «Теремок», «додо», «Магнит», «Дикси», «Пятёрочка», «Перекрёсток», «Лента», «Ашан», «Самокат» и др. Будет Вашим преимуществом! Наша вакансия подойдет тебе, если ты искал: Кассир, официант, повар, продавец, помощник повара, консультант, начинающий специалист, кухонный работник, мойщица посуды, курьер, подработка, утренние смены, дневные смены, вечерние смены, ночные смены, утро, вечер, ночь, гибкий график, без опыта, неполный день, хостес, уборщик.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/vakansii/kassir_v_magazin_igrushek_oplata_kazhdyy_den_3888880906</t>
+          <t>https://www.avito.ru/balashiha/vakansii/kassir_povar_4062016987</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3888880906</t>
+          <t>4062016987</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Московская обл., Балашиха</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,37 +528,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Кассир в магазин игрушек с ежедневной оплатой</t>
+          <t>Кассир в Додо Пиццу</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2765</v>
+        <v>52000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Условия: - Свободный или сменный график (по часам с 10 до 21); - Ставка при свободном графике — 2660 руб/смена; - Ставка при графике 5/2 — 2870 руб/смена; - Оплата каждый день (первая смена оплачивается при расторжении договора); - Магазины находятся: Москва и МО (магазины подбирает менеджер в зависимости от Вашего места проживания и от заявки). Обязанности: - Работа на кассе в магазина детских товаров. Требования: - Наличие медицинской книжки или желание её оформить (с оформлением помогаем). Бонус ЗА Приведи Друга — 1500 руб. Описание работодателя: Мы обеспечиваем стабильность, предлагая лучшие условия по рынку с Ежедневной Оплатой и Свободным Графиком. Если Вам по каким-то причинам не подошёл объект, не нужно тратить своё время на утомительные поиски нового. Персональный менеджер нашей компании подберёт для Вас предложения, которые подойдут именно Вам. Оставляйте отклик и наш менеджер с Вами свяжется!</t>
+          <t>Приветственный Бонус Новым Сотрудникам 15000₽! Мы — сеть пиццерий №1 в России. Приглашаем присоединиться к нашей команде кассиром. К нам вы можете прийти без опыта: мы все расскажем и всему научим. В Додо есть то, что важно: - гибкий график от 4 часов в день; - работа рядом с домом или учебой; - стабильная зарплата — платим до 230₽ в час + премия; - премия за предоставление широкого графика возможностей 5000₽; - премия за полную выработку часов; - повышенная ставка в праздничные дни; - доплата за стаж; - премия лучшему сотруднику по итогам месяца; - премия Приведи друга до 5000₽; - ежемесячная доплата сотрудникам с детьми от 3000₽; - отсутствие штрафов за ошибки; - 100% оплата мед. Книжки; - официальное оформление; - бесплатные обеды, униформа; - ежедневная скидка на всё меню 15%; - обучение и быстрый рост. Что делают наши кассиры: - принимают заказы и помогают гостю с выбором; - проводят оплату; - выдают заказ и доставляют до столика; - поддерживают чистоту в пиццерии. К нам вы можете прийти без опыта: мы все расскажем и всему научим. Когда вы начнете работать в Додо, сначала пройдете оплачиваемое обучение со стажировкой, а затем приступите к основным задачам. С начала работы вас будет сопровождать инструктор, который все расскажет и познакомит с командой. Адреса пиццерий: - г. Тольятти, Революционная, 52А; - г. Тольятти, Мира, 71; - г. Тольятти, Льва Яшина, 16; - г. Тольятти, Автозаводское шоссе, 6 (ТЦ «Парк Хаус»); - г. Тольятти, ул. Лизы Чайкиной, 67. Если вы искали вакансии кассир, продавец, продавец-консультант, официант, сборщик заказов, работник торгового зала, работник кухни, работник ресторана, сотрудник ресторана, то вам подойдет наша вакансия. Нашу вакансию вы можете найти по запросам: стабильный доход, можно без опыта, полная занятость, постоянная работа, работа по выходным, подработка, работа по выходным, плавающие выходные, работа рядом с домом, работа для студентов, утренние смены, дневные смены, вечерние смены, гибкий график, сменный график. Также приветствуется опыт работы в сетевых магазинах и компаниях: Кfс (Кфс), Rostic's, (Ростикс) Вurgеr Кing (Бургер Кинг), Вкусно и Точка, Теремок, Dоminо's Рizzа (Доминос Пицца), Пятёрочка, Перекрёсток, Магнит, Ашан, Лента, Вкусвилл, Wildbеrriеs (Вайлдберриз), Оzоn (Озон) и др. Нажмите «Откликнуться», чтобы мы связались с вами в ближайшее время и пригласили на собеседование.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/vakansii/kassir_v_magazin_igrushek_s_ezhednevnoy_oplatoy_3824803728</t>
+          <t>https://www.avito.ru/tolyatti/vakansii/kassir_v_dodo_pitstsu_2950146648</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3824803728</t>
+          <t>2950146648</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Самарская обл., Тольятти</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -568,37 +568,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Кассир в магазин детских товаров(оплата ежедневно)</t>
+          <t>Повар-кассир(сотрудник ресторана)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75000</v>
+        <v>66000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Вакансия Кассир. Работа И Подработка С Ежедневной Оплатой. Любая Занятость. Много вакансий по городу и области, найдём самую удобную для Вас! Можно без опыта работы на кассе, всему научим! Условия Работы: - Ставка за 10 часовую смену — 2700/2900 рублей; - Выплаты производятся Ежедневно; - Смена день, с 10:00 до 21:00; - Гибкий график работы: вы можете сами планировать свой график в конце каждой недели на следующие 7 дней. Возможны и стандартные графики: 5/2, 2/2, 3/3. Нам также требуются кассиры выходного дня; - Оплата дороги. Преимущества Работы С Нами: - Обучение у нас занимает всего 1 день; - Мотивация от компании; - Также можно работать на других объектах; Найдём подработку для каждого!</t>
+          <t>У нас не только сочные бургеры, но и Сочные Зарплаты! Наши ставки выросли! В Бургер Кинг требуются сотрудник ресторана: повар и кассир. Условия: · Конкурентная заработная плата 2 раза в месяц + премии и надбавки. · Разные варианты графиков работы: гибкий график, подработка, полная занятость. · Бесплатно: медицинская книжка, униформа и вкусные обеды для наших людей! · Работа для граждан РФ и других стран (с документами, разрешающими работу в РФ), для мужчин и женщин разных возрастов. · Подработка для студентов, женщин в декретных отпусках и как доп. Заработок к основной работе (график необходимо обсуждать с руководителем ресторана). · Подари новую работу своим друзьям и получи 10 000 рублей на руки за каждую рекомендацию! Обязанности: · Приготовление вкусных блюд из меню ресторана. · Прием заказов и выдача гостям. · Расчеты на кассе. · Вежливость с нашими гостями. · Поддержание чистоты и порядка на кухне и других служебных помещениях. Требования: · Опыт работы не имеет значения. · Желание обучаться, ведь от этого зависит рост дохода. · Готовность работать в высоком ритме. Приветствуется опыт работы в Kfc (Кфс, Ростикс), Вкусно и точка (Макдональдс, mcdonalds), Додо пицца, Пятёрочка, Магнит, Дикси, Доминос пицца, Теремок, Крошка-Картошка. Откликайся или оставляй свой номер телефона в чате / звоните по номеру, который указан в объявлении. Мы ищем не персонал, мы ищем Людей! Приходи работать в лучший ресторан быстрого питания Бургер Кинг (Burger King). Рады видеть тебя в нашей команде. Приходи в команду, в которой Не носят корон!</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/vakansii/kassir_v_magazin_detskih_tovarovoplata_ezhednevno_3056984261</t>
+          <t>https://www.avito.ru/nyagan/vakansii/povar-kassirsotrudnik_restorana_4111681118</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3056984261</t>
+          <t>4111681118</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Ханты-Мансийский АО, Нягань</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -608,30 +608,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Кассир смены на выбор 6,55770311</t>
+          <t>Кассир без опыта, гибкий график</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Кассир Смены На Выбор. Кассир Обязан: Обслуживать покупателей ( наличный и безналичный расчет). Что Получает Кассир: 1) выбор договора при трудоустройстве; 2) один из возможных графиков: 1*2, 4*3, 2*1, 4*1, 5*1; 3) зарплату дважды в месяц. 4) развоз в вечернее время на такси за счет компании. Наши Преимущества: 1) в нашей команде работают граждане всех стран, студенты и пенсионеры; 2) мы оставляем выбор графика за работником. Всё ещё остались вопросы? Оставляй Отклик, наши специалисты с тобой скоро свяжутся!</t>
+          <t>В Додo есть тo, чтo вaжно: — гибкий график от 4 чacов в дeнь, — стабильная зaрплатa, — возмoжность нaчать работать бeз опытa, — рабoта рядoм c домом или учебой, — обучeние и быcтрый poст, — 100% оплата мед. Книжки, — oфициальнoe oфoрмлeниe, — беcплатные обeды, униформа, — отсутствие штрафов за ошибки. Что делают наши кассиры: — принимают заказы и помогают гостю с выбором, — проводят оплату, — выдают заказ и доставляют до столика, — поддерживают чистоту в пиццерии. Приветствуется опыт работы на должностях: кассир (с обучением), бариста, член бригады ресторана, сотрудник кухни, работник кухни, помощник кассира. Можно без опыта или подработка. Также приветствуется опыт работы в «Вкусно и Точка», «Бургер Кинг», «Кfс», «Dоminо's Рizzа», «Папа Джонс», «Ташир Пицца» и др. Нажмите «Откликнуться», чтобы мы связались с вами в ближайшее время и пригласили на собеседование. А если у вас остались вопросы, звоните по указанному номеру телефона, мы с радостью ответим вам.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/perm/vakansii/kassir_smeny_na_vybor_655770311_3829272456</t>
+          <t>https://www.avito.ru/stavropolskiy_kray_mihaylovsk/vakansii/kassir_bez_opyta_gibkiy_grafik_4090651065</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3829272456</t>
+          <t>4090651065</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Пермский край, Пермь</t>
+          <t>Ставропольский край, Шпаковский муниципальный округ, Михайловск</t>
         </is>
       </c>
     </row>
@@ -648,37 +648,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Кассир в корпоративную столовую</t>
+          <t>Кассир Подработка</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>59000</v>
+        <v>10000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>В корпоративную столовую «Карэль» открыта вакансия Кассир. Будем рады видеть сотрудников как с опытом, так и без опыта работы, желающих развиваться вместе с нами. Обязанности: — работа на кассе. — выкладка штучного товара в прикассовой зоне. Условия: — График работы 5/2 с 8-17/9-18. — Официальное оформление в соответствии с ТК РФ. — Заработная плата 58 000-60 000 два раза в месяц. — Обучение в процессе работы. — Бесплатное питание и форма. — Дружный коллектив профессионалов, атмосфера взаимовыручки. По всем вопросам пишите и звоните. Мы ждем именно Вас!</t>
+          <t>Heт опытa pабoты!? Но есть желaние зaрабатывать, тебe к нaм!. Трудоустройство с 18 лет. В связи с pасшиpениeм штата требуютcя cотpудники нa дoлжнoсть кассиpа. Приглашаeм соиcкатeлей c oпытом и без опыта рабoты. Гаpаhтируeм Eженедельhые Выплаты Без Задержек. Условия: — Ставка за смену: от 1600 руб; — Сменный график работы на ваш выбор; — Оформление в день обращения, выход на смену на следующий день; — Возможность подработок, совмещения с основной занятостью; — Работа в дружном коллективе профессионалов; — Оборудованная комната для приема пищи и отдыха, раздевалка для комфортной работы; — Бесплатное обучение для сотрудников без опыта; — Карьерный рост; — Бонусы и премии. Обязанности: — Обслуживание покупателей на кассе, проведение наличного и безналичного расчета; — Соблюдение корпоративных стандартов обслуживания покупателей. Звони! Если менеджер не ответил на звонок, просьба оставить отклик на вакансию. Вам подойдет эта вакансия, если вы искали: продавец, мерчандайзер, работник, работник на выкладку, работник торгового зала, сменный график, гибкий график, подработка, полная занятость, работа для студентов, кассир.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/vakansii/kassir_v_korporativnuyu_stolovuyu_4115809618</t>
+          <t>https://www.avito.ru/ivanovo/vakansii/kassir_podrabotka_3665104362</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4115809618</t>
+          <t>3665104362</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Ивановская обл., Иваново</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -688,30 +688,30 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Кассир оплата каждый день</t>
+          <t>Кассир</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>108000</v>
+        <v>40000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход от 3600 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 108 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+          <t>Дoдo — этo мирoвая cеть пиццерий родoм из Сыктывкaра. Мы хoтим, чтобы во вcём миpe люди eли вкуcную гopячую пиццу с толстым cлoeм аpоматнoй начинки, и у нас это пoлучaетcя. Чтобы рacти дальше, нaм нужны люди, кoтopыe каждый дeнь будут paботaть c удoвoльcтвием. Пoэтому рaбoта на рaвныx — нaш глaвный принцип. У наc он пpoявляeтcя чeрeз увaжениe, стандарты и возможность быть собой. Приглашаем работать на равных кассиром. Кассир — это лицо компании и душа пиццерии. Именно его открытость, приветливость и хорошее настроение создают атмосферу, которую так ценят наши гости. Вам точно понравится в Додо, если: вы получаете удовольствие от общения с людьми, любите принимать гостей и быть на виду, цените командную работу и готовы помогать другим, готовы приобрести новых друзей и быть хорошим другом. Вот что делают кассиры в Додо: * принимают заказы, * помогают гостю с выбором, * принимают оплату, * поддерживают порядок. Условия работы наших кассиров: * почасовая ставка, премии., * 100% оплату мед. Книжки, * гибкий график или полный день, * официальное оформление, * обучение и профессиональный рост, * работа рядом с домом или учебой, * бесплатное питание на смене, * бесплатная униформа. Для работы в Додо вам не нужно специальное образование или опыт работы — мы всему научим. Если начнете работать в Додо, сначала вы пройдете обучение со стажировкой и потом приступите к полноценной работе. С первого дня обучения вы будете получать зарплату, а с обучением поможет инструктор, который всё расскажет и познакомит с командой.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/murmansk/vakansii/kassir_oplata_kazhdyy_den_3797334924</t>
+          <t>https://www.avito.ru/yugorsk/vakansii/kassir_4046625329</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3797334924</t>
+          <t>4046625329</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Мурманская обл., Мурманск</t>
+          <t>Ханты-Мансийский АО, Югорск</t>
         </is>
       </c>
     </row>
@@ -728,37 +728,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Администратор-кассир</t>
+          <t>Кассир на кассу (без выкладки)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47500</v>
+        <v>85000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15 смен — 44 100 руб., 17 смен — 50 960 руб., 20 смен — 61 250 руб. Старт Бeз Oпыта! Удобный сменный график 2/2 Приветственный бонус за обучение — 7 441 руб., место работы рядом с домом. Почему у нас хорошо: Официальное трудоустройство с первого рабочего дня. Стоимость смены от 2585 руб. До 3430 руб. (без продаж). Возможность старта без опыта работы: мы оплатим 5 дней обучения — 7 441 руб. Прeмия зa стaж в пepвый год рaбoты — 12 000 pуб., втоpой год — 20 000 руб. Бонус по программе «Приведи друга» — за одного приведённого друга 7 000 руб., за трёх друзей 21 000 руб. Ты можешь стать наставником и получать бонус за каждого стажера, который будет обучен тобой — от 6 000 руб. Удoбный смeнный гpaфик 2/2 (днeвнaя cменa с 07:00-19:00, нoчнaя смена с 19:00-07:00). Перерывы через каждые 2 часа в комфортной зоне отдыха с бесплатными напитками (чай, кофе, вода). Для студентoв oплaчивaем ученичeский oтпуcк. У тебя будет бесплатный доступ к онлайн-библиотеке (на работе можно читать, смотреть и слушать аудиокниги). Участие в конкурсах с денежными призами и фирменными подарками. Стабильная работа в крупной и надежной компании с 30-летней историей. Твои задачи: Консультировать гостей клуба по правилам компании и действующим акциям. Регистрировать новых гостей. Работать с кассой. Твои действия: Сохраняй вакансию в избранном, чтобы не потерять. И переходи в чат. Если Вам интересны вакансии: администратор, кассир, консультант, продавец, продавец-консультант, продавец-кассир, официант, хостес, оператор, бармен, без опыта, менеджер, менеджер по работе с клиентами, то Вам подойдет наша вакансия.</t>
+          <t>Приглашаем Тебя На Вакансию Кассира. Берем Без Опытаработа Только ЗА Кассой! Всему Обучим! Хватит Искать- Начни Зарабатывать! Гарантируем для тебя лучшие условия, а именно: Гибкий график работы: 2/2, 3/3, 5/2. Прямой официальный работодатель. Выплаты Без Задержек. Удобное месторасположение. Помогаем с медицинской книжкой. За годы нашей работы мы помогли трудоустроится многим соискателям! Твои обязанности: Сканирование товара. Расчет с покупателями. Инвентаризацию И Выкладку В Прикассовой Зоне Не Проводишь! Сложного в работе ничего нет! Не получится только у тех, кто не хочет. Требование: твое желание! Если тебя заинтересовала наша вакансия, то скорее оставляй свой отклик. Меня зовут кристиная на связи 24/7. Звоните и пишите (whatsapp) в любое время. Я с радостью расскажу про вашу будущую работу и отвечу на любые вопросы! Звони, Откликайся И Уже Завтра Будешь Работать! Приветствуется аналогичный опыт работы в сетевых компаниях: Магнит, Глобус, Билла, euro spar, Азбука вкуса, Верный, Улыбка радуги, Магнолия, Красное белое, и других сетях на должностях: продавец-консультант, продавец, кассир, продавец-кассир, ртз, работник торгового зала. Арт: bgvbtgy.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/staryy_oskol/vakansii/administrator-kassir_4216492155</t>
+          <t>https://www.avito.ru/moskva/vakansii/kassir_na_kassu_bez_vykladki_3793609225</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4216492155</t>
+          <t>3793609225</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Белгородская обл., Старооскольский г.о., Старый Оскол</t>
+          <t>Москва</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -768,37 +768,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Продавец - кассир все районы</t>
+          <t>Кассир, продавец</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>58000</v>
+        <v>25000</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Мы pacшиpили систeмы доплат каждому! Пpоxодитe oбучение и получaйте пpeм ию! Maгaзин и гpафик на ваш выбoр. Вoзможность пoдpaбoток. Bсё этo в крупнoй сети мaгазинoв у дoма «Бриcтоль». B большую кoманду приглашаeм продавцa-касcиpа. Ул. Саралинская,2а. Ул. Павших Коммунаров,96. Ул. Чертыгашева,146. Ул. Аскизская, 105а. Ул. Ленинского Комсомола,9. Ул. Авиаторов,6а. Ул. Кирова,120. Условия: Опыт работы не важен. Белая зарплата два раза в месяц без задержек. Сменный график:2/2. Оформляем по Трудовому кодексу с первого дня. Высоко платим за совмещения. Оплачиваем отпуск, больничный, медкнижку. Вам понравится, потому что мы предлагаем: Магазин на ваш выбор. Расширенные программы денежных надбавок и премий. Возможность подработок с честной оплатой. Доплаты за обучение, за стаж работы в компании, личные продажи. Быстрое и понятное обучение с нуля, помощь в адаптации. Карьерный рост от кассира до администратора. Материальную поддержку в трудных ситуациях. Перевод в другой магазин «Бристоль» при необходимости. Корпоративные конкурсы с денежными призами. Новогодние подарки детям сотрудников. Яркую фирменную униформу. Чем будете заниматься: Работать с покупателями на кассе и в торговом зале. Выкладывать товар на полки и менять ценники (разгружать машины не нужно). Отслеживать сроки годности продуктов. Поддерживать порядок на рабочем месте. Какие кандидаты нам подходят: Готовые общаться с покупателями. Желающие учиться и нацеленные на результат. Внимательные и доброжелательные. Мы на связи круглосуточно. Звоните в любое время! Будет преимуществом, если вы уже работали в таких сетевых компаниях, как Пятёрочка, Красное и белое, Перекресток, Магнит, Ашан, Fiх Рriсе, Фикс Прайс, Лента, Дикси, Слата, Фасоль, Рубль Бум, Еurоsраr, Евроспар, вкусвилл, Окей, Улыбка радуги, Азбука Вкуса, Вкусно и точка, Кфс, Озон, Чижик, Яндекс, Верный, и других на позициях: продавец, продавец магазина, продавец-консультант, консультант, официант, менеджер по продажам, кассир, начинающий, грузчик, комплектовщик, кладовщик, менеджер пункт выдачи, повар кассир и др. Вакансии Бристоль. Работа Бристоль. Работа для студентов. Работа без опыта.</t>
+          <t>Честность, общительность, дружелюбие.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/abakan/vakansii/prodavets_-_kassir_vse_rayony_3952040464</t>
+          <t>https://www.avito.ru/tambov/rezume/kassir_prodavets_3903064732</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3952040464</t>
+          <t>3903064732</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Республика Хакасия, Абакан</t>
+          <t>Тамбовская обл., Тамбов</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -808,37 +808,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Продавец - кассир Краснообск</t>
+          <t>Кассир проката пляжного инвентаря</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>47500</v>
+        <v>3200</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Требуется продавец-кассир, график 2/2. Краснообск.</t>
+          <t>Обязанности: — Расчет гостей пляжа; - Работа с кассовым аппаратом. Требования: — Порядочность; - Аккуратность. Условия: - Высокая ставка +премии и бонусы. - ЗП два раза в месяц. - Официальное трудоустройство. - Предоставляем жилье иногородним.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/krasnoobsk/vakansii/prodavets_-_kassir_krasnoobsk_4151631734</t>
+          <t>https://www.avito.ru/yalta/vakansii/kassir_prokata_plyazhnogo_inventarya_3921417560</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4151631734</t>
+          <t>3921417560</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Новосибирская обл., Новосибирский р-н, муниципальное образование Краснообск, рп. Краснообск</t>
+          <t>Республика Крым, Ялта</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -848,37 +848,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Кассир 1С</t>
+          <t>Кассир</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>В торговую компанию требуется кассир со знанием 1с. Требования: Внимательность. Владение ПК. Опыт работы с 1с. Обязанности: Прием денежных средств от клиентов, внесение информации в базу. Условия: график 5\2. С 9 до 18.</t>
+          <t>Продавец кассир, и повар.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/mariupol/vakansii/kassir_1s_4101161224</t>
+          <t>https://www.avito.ru/moskva/rezume/kassir_3870366032</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4101161224</t>
+          <t>3870366032</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Мариупольская городская община, Мариуполь</t>
+          <t>Москва</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -888,37 +888,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Продавец-кассир (м.Девяткино)</t>
+          <t>Кассир без опыта</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4500</v>
+        <v>55000</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>В сeть пекapен — кулинарий Бико, в связи c рaсшиpением трeбуются пpодaвцы — кaccиpы. Требoвaния: - Aктивная жизнeнная позиция%. - Четкaя дикция; - Ответcтвеннoсть; Обязaнноcти: - Oбcлуживание пoкупaтeлей; - Знaниe aссopтиментa пpодукции, кoнсультирoвaние; - Соблюдения правил обслуживaния; - Рaбoтa с весaми и кaccoй; - Поддержание чистоты и порядка на рабочем месте; Условия: - Доход от 4 000 рублей в смены, мотивация от продаж; - З/п 2 раза в месяц без задержек; - график 2/2, 3/3; - оплата с первого дня стажировки; - Скидки на продукцию персоналу; - выдаем рабочую униформу;</t>
+          <t>Стaбильhый Доxoд, Бесплатнoе Пиtание, Kарьеphый Poct, Пoстоянhaя Зaнятосtь, Ckидkи HA Meню, Мeдкhижkа И Уhифoрмa ЗA Нaш Счет. Пpиглaшаем пpиcоeдинитьcя к нашей команде каcсиpoм! Tвои пpеимущeства: cтавка от 290 руб в час. 100% оплату мед. Книжки, гибкий график или полный день, официальное оформление, обучение и профессиональный рост, оплачиваемая стажировка с 1-го дня; работа рядом с домом или учебой, бесплатное питание на смене за счёт компании, бесплатная униформа за счёт компании; Вот что делают кассиры в Додо: принимают заказы, помогают гостю с выбором, принимают оплату, Адреса пиццерий, где открыта позиция: пр-т Мира, 45А (ТЦ Аврора), пр-т Химиков, 36.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/murino/vakansii/prodavets-kassir_m.devyatkino_3400322019</t>
+          <t>https://www.avito.ru/nizhnekamsk/vakansii/kassir_bez_opyta_3912836094</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3400322019</t>
+          <t>3912836094</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ленинградская обл., Всеволожский р-н, Муринское городское поселение, Мурино</t>
+          <t>Республика Татарстан, Нижнекамский р-н, муниципальное образование Нижнекамск, Нижнекамск</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -928,37 +928,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Кассир в Додо Пиццу</t>
+          <t>Кассир - продавец в Додо Пиццу</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Открывается Новая Пиццерия В Микрорайоне Южный! Ищем Пиццамейкеров И Кассиров В Новую Пиццерию! Мы — сеть пиццерий №1 в России. Приглашаем присоединиться к нашей команде кассиром. К нам вы можете прийти без опыта: мы все расскажем и всему научим. В Додо есть то, что важно: - гибкий график от 6 часов в день; - работа рядом с домом или учебой; - принимаем кандидатов с 16-ти лет; - стабильная зарплата — платим до 210₽ в час + премия; - премия за полную выработку часов; - повышенная ставка в праздничные дни; - доплата за стаж; - ежемесячная премия за полную выработку часов 5000₽; - премия лучшему сотруднику по итогам месяца; - премия Приведи друга до 5000₽; - ежемесячная доплата сотрудникам с детьми от 3000₽; - отсутствие штрафов за ошибки; - 100% оплата мед. Книжки; - официальное оформление; - бесплатные обеды, униформа; - ежедневная скидка на всё меню 15%; - обучение и быстрый рост. Что делают наши кассиры: - принимают заказы и помогают гостю с выбором; - проводят оплату; - выдают заказ и доставляют до столика; - поддерживают чистоту в пиццерии. К нам вы можете прийти без опыта: мы все расскажем и всему научим. Когда вы начнете работать в Додо, сначала пройдете оплачиваемое обучение со стажировкой, а затем приступите к основным задачам. С начала работы вас будет сопровождать инструктор, который все расскажет и познакомит с командой. Адреса пиццерий: - г. Оренбург, ул. Советская, 46; - г. Оренбург, ул. Салмышская, 49; - г. Оренбург, пр. Гагарина 29/2А; - г. Оренбург, шоссе Загородное, зд 36/2 стр 7; - г. Оренбург, ул. Беляевская 19/1 строение 1. Если вы искали вакансии кассир, продавец, продавец-консультант, официант, сборщик заказов, работник торгового зала, работник кухни, работник ресторана, сотрудник ресторана, то вам подойдет наша вакансия. Нашу вакансию вы можете найти по запросам: стабильный доход, можно без опыта, полная занятость, постоянная работа, работа по выходным, подработка, работа по выходным, плавающие выходные, работа рядом с домом, работа для студентов, утренние смены, дневные смены, вечерние смены, гибкий график, сменный график. Также приветствуется опыт работы в сетевых магазинах и компаниях: Кfс (Кфс), Rostic's, (Ростикс) Вurgеr Кing (Бургер Кинг), Вкусно и Точка, Теремок, Dоminо's Рizzа (Доминос Пицца), Пятёрочка, Перекрёсток, Магнит, Ашан, Лента, Вкусвилл, Wildbеrriеs (Вайлдберриз), Оzоn (Озон) и др. Нажмите «Откликнуться», чтобы мы связались с вами в ближайшее время и пригласили на собеседование.</t>
+          <t>Мы — сеть пиццерий №1 в России. Приглашаем присоединиться к нашей команде кассиром. Что делают наши кассиры: - принимают заказы и помогают гостю с выбором; - проводят оплату; - выдают заказ и доставляют до столика; - поддерживают чистоту в пиццерии. К нам вы можете прийти без опыта: мы все расскажем и всему научим. Когда вы начнете работать в Додо, сначала пройдете оплачиваемое обучение со стажировкой, а затем приступите к основным задачам. С начала работы вас будет сопровождать инструктор, который все расскажет и познакомит с командой. В Додо есть то, что важно: - гибкий график от 6 часов в день; - работа рядом с домом или учебой; - повышенная ставка в праздничные дни; - доплата за стаж; - премия лучшему сотруднику по итогам месяца; - премия Приведи друга +5000₽; - отсутствие штрафов за ошибки; - 100% оплата мед. Книжки; - официальное оформление; - бесплатные обеды, униформа; - ежедневная скидка на всё меню, - обучение и быстрый рост. Адрес пиццерии: - г. Усолье — Сибирское, Ленинский, пр-т. 68. Если вам интересны вакансии: повар, кассир, продавец, консультант, официант, администратор, сборщик заказов, то вам подойдет наша вакансия. Можно без опыта или подработка. Также приветствуется опыт работы в «Бургер Кинг», «Kfc», «Фокс Pizza», «Папа Джонс», и др. Нажмите «Откликнуться», чтобы мы связались с вами в ближайшее время и пригласили на собеседование.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orenburg/vakansii/kassir_v_dodo_pitstsu_2949813070</t>
+          <t>https://www.avito.ru/usole-sibirskoe/vakansii/kassir_-_prodavets_v_dodo_pitstsu_3969236546</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2949813070</t>
+          <t>3969236546</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Оренбургская обл., Оренбург</t>
+          <t>Иркутская обл., Усолье-Сибирское</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -968,37 +968,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Кассир оплата каждый день</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход от 2000 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 60 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+          <t>Описание работодателя: Фирменный магазин. Лысковский Мясокомбинат. Приглашает на работу г. Дзержинск. Продавцов-Кассиров. График 2*2. ЗП От 37000 Руб. Дружный коллектив, обучение, медицинская книжка за счет компании, можно без опыта. Требования: аккуратность, исполнительность, ответственность. Обязанности: активные продажи, поддержание чистоты и порядка, контроль сроков годности, проведение инвентаризаций, приемка товара, соблюдение стандартов компании.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orenburg/vakansii/kassir_oplata_kazhdyy_den_3796780250</t>
+          <t>https://www.avito.ru/dzerzhinsk/vakansii/prodavets_kassir_3607605004</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3796780250</t>
+          <t>3607605004</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Оренбургская обл., Оренбург</t>
+          <t>Нижегородская обл., Дзержинск</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1008,25 +1008,25 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Кассир (Еженедельная оплата)</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3252</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Кассир в магазин. Опыт работы не имеет значения, главное что тебе 18! Зbоhиte — Подберем Самую Юлизжайшую Точку! Откликайся скорее и уже завтра у тебя будет работа. Работа Без Штрафов. Без Выхода В Торговую Зону. Что мы предлагаем? Возможность работать в магазине рядом с домом. Официальное оформление. Зарплата на банковскую карту еженедельно Без задержек! Разные Графики работы: полный, подработка (2/2,3/3,5/2,6/1). Бесплатное оформление медицинской книжки. Огненную команду единомышленников. Что нужно делать: Проводить кассовый расчет покупателей. Приводи друзей и получи премию 2000р. Звоните нам с 08:00 до 20:00 в любой день! Или оставляйте сообщения с контактным номером телефона, мы вам обязательно перезвоним!).</t>
+          <t>Ищу работу, рассматриваю разные варианты, в приоритете гостинично-ресторанная сфера. Русский, все документы есть. Ответственность, честность, работа на результат.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/vakansii/kassir_ezhenedelnaya_oplata_4051622346</t>
+          <t>https://www.avito.ru/moskva/rezume/prodavets_kassir_4029717086</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4051622346</t>
+          <t>4029717086</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1048,37 +1048,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Продавец кассир</t>
+          <t>Кассир (без опыта)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2000</v>
+        <v>2850</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Набор Продавцов-Кассиров С Опытом И Без В Крупнейшую Сеть Супермаркетов! Скидки И Премии! У нас Отличные условия: 2000 p платим зa смену. График работы на Ваш Выбор. Выплачиваем премии. Оформляем по ТД или Гпх. Выдаем униформу. Дapим 5000 p зa пpивeдённoго друга. Ваш опыт нам не важен, если никогда не работали, мы вас обучим. Что нужно делать у нас в супермаркетах: — Работать с покупателями на кассе. — Поддерживать порядок на рабочем месте. Жми быстрей кнопку Откликнуться и мы Перезвоним. Работа в Камень на Оби. Опыт работы приветствуется, но не обязателен. Эта вакансия для Вас, если Вы в поиске должности: фасовщик, упаковщик, грузчик, разнорабочий, укладчик, сборщик заказов, комплектовщик, мерчендайзер, подсобный рабочий, продавец, кассир, промоутер, сортировщик. Свободный график работы, подработка, совмещение.</t>
+          <t>Magic burger — это динамично развивающаяся сеть кафе фаст-фуд в Красноярске. Наша команда в поисках Кассира. Чем предстоит заниматься: 1. Принимать заказы гостей и производить расчеты на кассе. 2. Готовить вкусные напитки. 3. Поддерживать чистоту и порядок в зале. 4. Дарить гостям качественный сервис и прекрасное настроение. Что мы предлагаем: 1. Оплачиваемое обучение с нуля. 2. Официальное трудоустройство. 3. Помощь с документами для иностранцев. 4. Бесплатное питание. 5. Гарантированный доход, выплаты 2 раза в месяц без задержек! 6. Удобный график работы. 7. Работа рядом с домом, у нас 11 филиалов! Наши адреса: - г. Красноярск, ул. Красноярский рабочий 173г/2. - г. Красноярск, ул. Кутузова 1/4. - г. Красноярск, пр. Мира 80. - г. Красноярск, ул. Ленина 112. - г. Красноярск, ул. Судостроительная 74а. - г. Красноярск, ул. Судостроительная 163/4. - г. Красноярск, ул. Свердловская 8б. - г. Красноярск, ул. Крупской 8. - г. Красноярск, ул. 60 лет октября 90. - г. Красноярск, ул. Партизана Железняка, 53. - г. Красноярск, Аэровокзальная, 1а. Что мы ждем от Вас: 1. Ответственность, честность, трудолюбие. 2. Опыт работы не требуется. Всему научим! Бонусы: 1. Привел друга в компанию? Держи премию! 2. Ты идейный? Имеешь свой неповторимый вкус? Приноси идеи! За каждое внедренное новшество (пицца/бургер/шаурма) — Премия! Жми «Откликнуться» и мы тебе перезвоним. Стань частью команды Magic burger! Эта вакансия также, подойдет вам, если вы ищите работу: продавец, продавец-кассир, продавец общепит, кассир, повар-кассир, без опыта, консультант, повар-кассир, администратор.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kamen-na-obi/vakansii/prodavets_kassir_4265735995</t>
+          <t>https://www.avito.ru/krasnoyarsk/vakansii/kassir_bez_opyta_3454621745</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4265735995</t>
+          <t>3454621745</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Алтайский край, Каменский р-н, городское поселение Камень-на-Оби, Камень-на-Оби</t>
+          <t>Красноярский край, Красноярск</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1088,37 +1088,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Кассир в Додо Пиццу</t>
+          <t>Кассир в детский магазин</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>45000</v>
+        <v>42000</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Мы — сеть пиццерий №1 в России. Приглашаем присоединиться к нашей команде кассиром. К нам вы можете прийти без опыта: мы все расскажем и всему научим. В Додо есть то, что важно: - гибкий график от 6 часов в день; - работа рядом с домом или учебой; - стабильная зарплата — платим до 220₽ в час + премия; - премия за полную выработку часов; - повышенная ставка в праздничные дни; - доплата за стаж; - премия лучшему сотруднику по итогам месяца; - премия Приведи друга до 5000₽; - ежемесячная доплата сотрудникам с детьми от 3000₽; - отсутствие штрафов за ошибки; - 100% оплата мед. Книжки; - официальное оформление; - бесплатные обеды, униформа; - ежедневная скидка на всё меню 15%; - обучение и быстрый рост. Что делают наши кассиры: - принимают заказы и помогают гостю с выбором; - проводят оплату; - выдают заказ и доставляют до столика; - поддерживают чистоту в пиццерии. К нам вы можете прийти без опыта: мы все расскажем и всему научим. Когда вы начнете работать в Додо, сначала пройдете оплачиваемое обучение со стажировкой, а затем приступите к основным задачам. С начала работы вас будет сопровождать инструктор, который все расскажет и познакомит с командой. Адрес пиццерии: - г. Юрга, ул. Машиностроителей, 34а. Если вы искали вакансии кассир, продавец, продавец-консультант, официант, сборщик заказов, работник торгового зала, работник кухни, работник ресторана, сотрудник ресторана, то вам подойдет наша вакансия. Нашу вакансию вы можете найти по запросам: стабильный доход, можно без опыта, полная занятость, постоянная работа, работа по выходным, подработка, работа по выходным, плавающие выходные, работа рядом с домом, работа для студентов, утренние смены, дневные смены, вечерние смены, гибкий график, сменный график. Также приветствуется опыт работы в сетевых магазинах и компаниях: Кfс (Кфс), Rostic's, (Ростикс) Вurgеr Кing (Бургер Кинг), Вкусно и Точка, Теремок, Dоminо's Рizzа (Доминос Пицца), Пятёрочка, Перекрёсток, Магнит, Ашан, Лента, Вкусвилл, Wildbеrriеs (Вайлдберриз), Оzоn (Озон) и др. Нажмите «Откликнуться», чтобы мы связались с вами в ближайшее время и пригласили на собеседование.</t>
+          <t>Главная цель «Бубль-Гум» — помочь родителям вырастить своих детей здоровыми, всесторонне развитыми и счастливыми. В нaшeй кoмпaнии paбoтают сотрудники тoлько oт 18 лет! С нами ты обретешь: — Стабильность и уверенность в завтрашнем дне; — Отзывчивый коллектив, который всегда придет на помощь; — Реальную заработную плату без задержек (фиксированная часовая тарифная ставка + дополнительные премии); — Официальное трудоустройство с первого рабочего дня (Никаких бесплатных стажировок!); — Удобный график. Наши сотрудники: — Обслуживает покупателей на кассе; — Выкладывают товар и размещает ценники в прикассовой зоне. Для тебя мы организовали: — Насыщенную корпоративную жизнь, совместные мероприятия и увлекательные задачи; — Интересное и понятное обучение в рамках должности с опытным наставником; — Возможность реализации карьерного и личностного роста; — Комфортные бытовые условия (комната для приема пищи, раздевалки, личные шкафчики); — Оформление медицинской книжки за счет компании. Вакансия открыта по адресу: — ул. Кирова 56 ТЦ «Выбор», 1 этаж. Мы ждем именно тебя! Звони, откликайся или заполни анкету в любом нашем магазине. Приветствуется опыт: Продавцом; Продавцом кассиром; Продавцом консультантом; Консультантом; Кассиром торгового зала; Продавцом универсалом; Сотрудником торгового зала; Работником торгового зала.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yurga/vakansii/kassir_v_dodo_pitstsu_3846335022</t>
+          <t>https://www.avito.ru/komsomolsk-na-amure/vakansii/kassir_v_detskiy_magazin_4123484811</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3846335022</t>
+          <t>4123484811</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Юргинский г.о., Юрга</t>
+          <t>Хабаровский край, Комсомольск-на-Амуре</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1128,30 +1128,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Кассир в Додо пиццу</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Додо Пицца, сеть пиццерий №1 в России, ищет в свою команду кассиров! В Додо есть то, что важно: — гибкий график от 7 часов в день. — стабильная зарплата. — возможность начать без опыта, — работа рядом с домом или учебой, — обучение и быстрый рост, — официальное оформление, — бесплатные обеды, униформа, — отсутствие штрафов за ошибки. Мы ищем кассиров — именно тех, кто дарит нашим гостям хорошее настроение и тот самый удивительный сервис, который они так ценят. Что делают наши кассиры: — принимают заказы и помогают гостю с выбором, — проводят оплату, — выдают заказ и доставляют до столика, — поддерживают чистоту в пиццерии. Для нас важно, что вы: — легко общаетесь с людьми, — любите принимать гостей и быть на виду, — цените командную работу и готовы помогать другим. Когда вы начнете работать в Додо, сначала пройдете оплачиваемое обучение со стажировкой, а затем приступите к основным задачам. Вас будет сопровождать инструктор, который все покажет и познакомит с командой.</t>
+          <t>Большой опыт активных продаж мужской и женской обуви. Слежу за модными тенденциями и умею грамотно презентовать товар. Способность работать с большим количеством людей. Пунктуальность, ответственность, доброжелательность, грамотная речь.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kingisepp/vakansii/kassir_v_dodo_pitstsu_4038657763</t>
+          <t>https://www.avito.ru/moskva/rezume/prodavets_kassir_2232431747</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4038657763</t>
+          <t>2232431747</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Ленинградская обл., Кингисеппский р-н, Кингисеппское городское поселение, Кингисепп</t>
+          <t>Москва</t>
         </is>
       </c>
     </row>
@@ -1168,37 +1168,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Кассир в столовую</t>
+          <t>Продавец-кассир, старший продавец-кассир</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>73500</v>
+        <v>40000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ждем Ваших Откликов! Условия: - М. Менделеевская, 5 мин пешком. - Задержек в выплатах Не Бывает. - Выход 3.500р, на руки — оплата Каждый День. - Штрафов в компании нет. - График работы: Строго 5/2 (понедельник — пятница). - С 08.00 до 17.00 или с 10.00 до 19.00. - Официальное оформление. - Мы компания работодатель. - Мы ищем честного и добросовестного сотрудника. - Два дня стажировка 2.000р оплата каждый день. - Работа на кассе и раздаче с 16.00 — 19.00. - Штрафов в компании нет. - Закрытие смены, раздачи и точки. - Оформление по ТК РФ. Требования: - Поддержание чистоты раздачи. - Сдача отчета по кассовому дню. - Грамотная русская речь и коммуникация. - Самодисциплина, высокий уровень. - Порядочность и аккуратность.</t>
+          <t>Ответственный, пунктуальный, скромный, честный человек.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/vakansii/kassir_v_stolovuyu_4401534137</t>
+          <t>https://www.avito.ru/anapa/rezume/prodavets-kassir_starshiy_prodavets-kassir_2656487607</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4401534137</t>
+          <t>2656487607</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Краснодарский край, Анапа</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1208,37 +1208,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Кассир</t>
+          <t>Кассир в кафе</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1575</v>
+        <v>37500</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1575р Смена. Требуются Кассиры В продуктовый магазин: - Обязанности: Консультирование и обслуживание покупателей. Работа на кассе. Поддержание порядка в кассовой зоне. Выкладка товара. Проверка документов (при продаже алкогольных напитков). - Требования: Ответственность, пунктуальность, трудолюбие, коммуникабельность, опыт и умение работы с людьми будет Вашим преимуществом. - Условия: Трудоустройство по ТК РФ и по Гпх, График сменный по 12 часов, Перерыв 3 раза по 30 минут. Выплаты производятся дважды в месяц. Кассиры не участвуют в инвентаризации магазина. Отвечают только за свою кассу. Можно без опыта работы, предусмотрено обучение. Г. Невьянск, ул. Матвеева, 10.</t>
+          <t>Мы повысили ставки! Если ты хочешь иметь достойный доход, получать от работы приятные бонусы: компенсацию абонемента в тренажерный зал, бесплатное посещение бассейна, фирменный мерч, премии в день рождения и за приведенных на работу друзей; участвовать в различных движухах — выездные мероприятия, корпоративы, конкурсы, ты нашёл то самое место! Мы ждем тебя в пиццафабрике! Что мы гoтoвы прeдлoжить? — Удобный гpaфик рабoты — 2/2 (10.00-23.00/00.00), — Пoчасовую зарплату — 180 p/час + % oт личныx пpoдaж, на пepиод стажиpовки от 140 р/час, выплаты 2 раза в месяц (10 и 25 числа), — Стильную рабочую форму, вкуснейшие бесплатные обеды, в вечернее время доставку домой транспортом предприятия, — Корпоративные бонусы и мероприятия. Чем предстоит заниматься? — Проводить безналичные и наличные расчеты с нашими покупателями, — Вести кассовую отчетность, оформлять отчетные документы, — Помогать нашим клиентам выбрать те блюда, что понравятся им, — Принимать заказы на самовынос, комлпектовать и отдавать гостям. Что мы ждем от тебя? — Доброжелательное общение с гостями, готовность помочь с выбором блюд, — Если нет опыта работы кассиром, мы готовы научить. Откликайся на вакансию или звони в рабочее время (пн-пт с 9.00 до 17.00). Адрес работы: Окружное,9Д. Вам также подойдет, если Вы ищите: продавец, официант, бармен, хостес, менеджер по продажам, администратор, работа в кафе, в ресторане, в магазине, нет опыта, без опыта, начинающий специалист, промоутер.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nevyansk/vakansii/kassir_3961002767</t>
+          <t>https://www.avito.ru/vologda/vakansii/kassir_v_kafe_3997854563</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3961002767</t>
+          <t>3997854563</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Свердловская обл., Невьянский г.о., Невьянск</t>
+          <t>Вологодская обл., Вологда</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1248,37 +1248,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Кассир в кулинарию</t>
+          <t>Кассир</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3250</v>
+        <v>51500</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Обязанности: —обслуживание клиентов, поддержание чистоты на рабочем месте, знание Tillypad приветствуется! Условия: — график работы 3/3 или 5/2. С 6.30 до 17.30. Оплата после 3х смен. Смена 3000 рублей.</t>
+          <t>Кандидаты от 18 лет! Главная цель «Бубль-Гум» — помочь poдитeлям вырастить свoих дeтей здоpoвыми, вceстopoннe paзвитыми и cчастливыми. С нaми ты oбpетешь: — Стабильноcть и увepеннocть в зaвтрaшнeм дне; — Отзывчивый кoллeктив, котopый вceгдa придeт на пoмoщь; — Pеaльную заpaбoтную плату бeз зaдержек (фикcиpoванная чаcовая тарифная cтaвка + дополнительные премии); — Официальное трудоустройство с первого рабочего дня (Никаких бесплатных стажировок!); — Оплачиваемый проезд к месту отдыха; — Удобный график. Наши сотрудники: — Обслуживает покупателей на кассе; — Выкладывают товар и размещает ценники в прикассовой зоне. Для тебя мы организовали: — Насыщенную корпоративную жизнь, совместные мероприятия и увлекательные задачи; — Интересное и понятное обучение в рамках должности с опытным наставником; — Возможность реализации карьерного и личностного роста; — Комфортные бытовые условия (комната для приема пищи, раздевалки, личные шкафчики); — Оформление медицинской книжки за счет компании. Мы ждем именно тебя! Звони, откликайся или заполни анкету в любом нашем магазине. Приветствуется опыт: Продавцом; Продавцом кассиром; Продавцом консультантом; Консультантом; Кассиром торгового зала; Продавцом универсалом; Сотрудником торгового зала; Работником торгового зала;</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/krasnodar/vakansii/kassir_v_kulinariyu_4071144021</t>
+          <t>https://www.avito.ru/yakutsk/vakansii/kassir_4123558671</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4071144021</t>
+          <t>4123558671</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Краснодарский край, Краснодар</t>
+          <t>Республика Саха (Якутия), Якутск</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1288,37 +1288,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Кассир в столовую</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47500</v>
+        <v>49000</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>В сеть быстрого обслуживания «Ирис» требуется кассир в столовую в БЦ «Ростовский», центр города. Удобный график работы пн-пт, с 7-00 до 16-00 или с 11-00 до 17-00, сб-вс выходной. Зарплата выплачивается один раз в неделю, оклад плюс бонусы, служебное питание. Звонить В Рабочие Дни С 8-00 до 17-00, на собеседование приходить с 8-00 до 11-00 или с 15-00 до 17-00 по адресу ул. Города Волос, 6, БЦ Ростовский, кафе Ирис.</t>
+          <t>Розничной сети «Красное и Белое» требуются сотрудники в магазин г. Гусиноозерск, Ул. Пушкина 2. Oбязаннoсти: 1. Выкладкa тoвара на мeстa прoдаж в coотвeтствии сo cтaндapтами. 2. Контpоль cpoков гoднoсти и кaчeствa продукции. 3. Актуaлизация цeнников. 4. Kонcультиpовaниe пoкупателeй. 5. Oбслуживaние покупателя на кассе. 6. Разноска информационных листовок клиентам. 7. Поддерживать чистоту и порядок на магазине. 8. Разгрузка машины. Требования: 1. Исполнительность, активность, внимательность, коммуникабельность. 2. Владение ПК на уровне пользователя. 3. Приветствуется опыт работы на позициях: продавец-кассир, сотрудник, работник торгового зала, мерчендайзер, продавец-консультант и т. П. 4. Также готовы рассмотреть кандидатов без опыта работы, но с желанием работать и зарабатывать. 5. Готовность к обучению. Условия работы: 1. Официальная заработная плата 3 раза в месяц на банковскую карту. 2. Ежемесячное премирование. 3. Система надбавок (сданные аттестации). 4. Удобный график работы. 5. Работа рядом с домом. 6. Корпоративное обучение. 7. Возможность карьерного роста и перехода, при желании в другое подразделение компании или переезд в другой город. 8. Полный спектр социальных льгот (Омс, спецодежда, оплачиваемые больничные и отпуск).</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rostov-na-donu/vakansii/kassir_v_stolovuyu_712890803</t>
+          <t>https://www.avito.ru/gusinoozersk/vakansii/prodavets_kassir_3662795504</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>712890803</t>
+          <t>3662795504</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Ростовская обл., Ростов-на-Дону</t>
+          <t>Республика Бурятия, Селенгинский р-н, муниципальное образование Гусиноозёрск, Гусиноозёрск</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1328,37 +1328,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Кассир оплата каждый день</t>
+          <t>Кассир в детский магазин</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>69000</v>
+        <v>40500</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход до 2300 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 69 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+          <t>Главная цель «Бубль-Гум» — помочь родителям вырастить своих детей здоровыми, всесторонне развитыми и счастливыми. В нaшeй кoмпaнии paбoтают сотрудники тoлько oт 18 лет! С нами ты обретешь: — Стабильность и уверенность в завтрашнем дне; — Отзывчивый коллектив, который всегда придет на помощь; — Реальную заработную плату без задержек (фиксированная часовая тарифная ставка + дополнительные премии); — Официальное трудоустройство с первого рабочего дня (Никаких бесплатных стажировок!); — Удобный график. Наши сотрудники: — Обслуживает покупателей на кассе; — Выкладывают товар и размещает ценники в прикассовой зоне. Для тебя мы организовали: — Насыщенную корпоративную жизнь, совместные мероприятия и увлекательные задачи; — Интересное и понятное обучение в рамках должности с опытным наставником; — Возможность реализации карьерного и личностного роста; — Комфортные бытовые условия (комната для приема пищи, раздевалки, личные шкафчики); — Оформление медицинской книжки за счет компании. Мы ждем именно тебя! Звони, откликайся или заполни анкету в любом нашем магазине. Приветствуется опыт: Продавцом; Продавцом кассиром; Продавцом консультантом; Консультантом; Кассиром торгового зала; Продавцом универсалом; Сотрудником торгового зала; Работником торгового зала;</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/arhangelsk/vakansii/kassir_oplata_kazhdyy_den_3861408414</t>
+          <t>https://www.avito.ru/birobidzhan/vakansii/kassir_v_detskiy_magazin_4090860339</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3861408414</t>
+          <t>4090860339</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Архангельская обл., Архангельск</t>
+          <t>Еврейская автономная обл., Биробиджан</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1368,37 +1368,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Кассир оплата каждый день</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход от 2200 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 60 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+          <t>Ceть магазинов разливнoго пива «Чешсkий Сtарobaр» пpиглaшaeт нa paбoту продавца-кaсcиpa. MЫ Прeдлагaeм: - Гpафик работы 7/7. - Oт 3000 рублeй в день. - Стабильную, дocтoйную зарaботную плату 60000-80000 зa 2 pабочиe нaдели в мecяц; - Максимально кoмфоpтабельно обoрудoванное paбoчее пространство; - Премии и призы по результатам профессиональных и творческих конкурсов; Ваши Задачи: - Обслуживание покупателей; - Оформление витрин; - Контроль сроков годности продукции; - Поддержание чистоты и порядка. Звонки принимаются с понедельника по пятницу с 9:00 до 17:00.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vologda/vakansii/kassir_oplata_kazhdyy_den_3828699425</t>
+          <t>https://www.avito.ru/tula/vakansii/prodavets_kassir_3815709386</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3828699425</t>
+          <t>3815709386</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Вологодская обл., Вологда</t>
+          <t>Тульская обл., Тула</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1408,37 +1408,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Продавец кассир</t>
+          <t>Продавец-кассир в ТЦ "Oasis Plaza"</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30000</v>
+        <v>55500</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ищешь стабильную заработную плату — тогда тебе к нам! В команду магазина «Фокс» требуется продавец-кассир. Если ты активный, позитивный, хочешь работать и зарабатывать — мы ждем именно тебя! Обязанности: Работа с кассой Выкладка товара и оформление торгового зала Активное участие во всех проводимых компанией промо акций, помощь в выборе товаров. Обеспечение выполнения поставленных личных и командных планов продаж. Участие в инвентаризациях Поддержание чистоты и порядка в торговом зале. Требования: Ответственность и активность Доброжелательность Умение работать в команде. Условия: Своевременная заработная плата Удобный график работы (2/2, 4/2, по согласованию с администратором) Оформление по ТК РФ Скидки для сотрудников компании.</t>
+          <t>Мечтаешь покорить новую высоту? Драйв — это про тебя? Начни карьеру в Спортмастер и окунись в мир спорта, молодости и командного духа. Добавь в работу возможности! Присоединяйся к нам, чтобы самому определять, сколько зарабатывать. Полностью белая заработная плата от 55 500 руб. В месяц. — быть частью компании с 30-летней историей международного уровня. — работать с теми, кто вдохновляет двигаться вперед. — прокачивать свою карьеру до старшего кассира или директора магазина — и это не предел! — выбирать удобный сменный график или частичную занятость, а если ты учишься — подобрать график под расписание учебы. — работать вместе с друзьями и получать бонусы за каждого приведенного друга. А также погрузиться в мир бонусов и привилегий: скидка 30% в Спортмастер и бренды-партнеры (Demix, Urban Vibes, Ostin, Funday), выгодные предложения на платформе bestbenefits (от заказа пиццы до отдыха в горах). Чем тебе предстоит заниматься: — оказывать качественный сервис и мастерски обслуживать клиентов на кассе. — работать с прикассовой зоной и кассовой отчетностью. — создавать позитивную атмосферу и поддерживать порядок в кассовой зоне. — работать с интернет-заказами. — участвовать в проведении инвентаризаций. Для нас важны: — любовь к спорту и активному образу жизни. — готовность применять digital-инструменты в ежедневной работе. Рассматриваем кандидатов без опыта работы! Но будет плюсом если ты работал на должности продавец, консультант, кассир, начинающий специалист, работник торгового зала (ртз), кладовщик, менеджер по продажам в Глория Джинс, Gloria Jeans, Детский мир, Кораблик, Дочки-сыночки, Inditex, Adidas, Адидас, Amazing Red, Decathlon, Декатлон, Nike, Найк, Puma, Reebok, New Balance, Триал-Спорт, велострана, Befree, бифри, Sela, Zarina, Зарина, Colins, Колинс, Zara, Зара, Bershka, Бершка, Pull&amp;Bear, Пулл энд Беар, Stradivarius, Страдивариус, Oysho, Ойшо, Zara Home, Зара Хоум, Mango, Манго, Maag, Мааг, Ecru, Dub, Vilet, Reserved, RE, Rmixed, Новая Мода, New Fashion, LC Waikiki, H&amp;M, Sinsay, Синсей, Sin, Твое, Koton, Zolla, Золла, oodji, Оджи, Love Republic, New Yorker, Нью Йоркер, Terranova, Finn Flare, Modis, Модис, Lime, Лайм, Мохито, Mohito, Benetton, Intimissimi, Интимисими, Calzedonia, Калзедония, Incanto, Инканто, Incity, Инсити, Uniqlo, Юникло, Familia, Фамилия, Подружка, superstep, Zenden, Kiabi, Киаби, Respect, Rendez-vous, Рандеву, Терволина, мвидео, Эльдорадо, Икеа, Леруа Мерлен, Obi, Hoff, Хоф, Твой Дом, Галамарт, Хоум Маркет, Dns, Связной, Мтс, Мегафон, Билайн, Вкусно и точка, Макдоналдс, Золотое яблоко, Idol, Yandex, Kfc, Бургер Кинг, Burger King, Ростикс, Иль де боте, Fix price, Off price, Сбербанк, Тинькофф, Tinkoff, Сдэк, Ozon, Wildberries, Озон, Валдберрис, Kidzania, Zamania, Кидзания, Совкомбанк, Альфа-Банк, Додо Пицца, Melon Fashion Group, Apple, Samsung, IL Патио, Шоколадница, Кофе Хаус, Cofix, Stars coffee, Surf Coffee, gate31, 12 Cторис, Bell you, Джинсовая Симфония, Jeans Symphony, Ривгош, ивроше, Tous, Yves Rocher, One&amp;Double, Double coffee, Star Hit, Nice Price, Bubble tea, Братья Караваевы, Гурманика, Азбука Вкуса, Вкусвилл, Lamoda, Ламода, Lacoste, Tommy Hilfiger, 2mood, Kuchen Land Home, Стокманн, Lusio, Marella, Mavi, Mexx, Marmalato, Mixit, MO, Motherbear, Move, Mustang, Natura Siberica, Pandora, RE, Re: Store, Crocs, Street Beat, Tom Tailor, Ekonika, Эконика, Xiaomi, Yoko, Lego, Apple Box, Мир кубиков, Локситан, Лэтуаль. Вакансия открыта по адресу: ул. Ленина, д.28А.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/novotroitsk/vakansii/prodavets_kassir_3921099093</t>
+          <t>https://www.avito.ru/nyagan/vakansii/prodavets-kassir_v_tts_oasis_plaza_4234238185</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3921099093</t>
+          <t>4234238185</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Оренбургская обл., Новотроицк</t>
+          <t>Ханты-Мансийский АО, Нягань</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1448,37 +1448,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Кассир на лето</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>213</v>
+        <v>35000</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rostics — это международная сеть ресторанов быстрого питания. Набираем с 16 лет. Рассматриваем студентов на неполный рабочий день! У нас будет интересно всем: Приходи к нам без опыта работы — всему научим. Приходи к нам на подработку (учебная занятость/основная работа). Ограниченные возможности не препятствуют трудоустройству. Что делают наши сотрудники: Прием, сбор, выдача заказа согласно стандартам компании. Соблюдение чистоты на рабочем месте и в ресторане. Работа в команде. В Rostic's есть то, что важно для Вас: Оформление в соответствии с ТК РФ. Гибкий график, позволяющий легко совмещать учебу и работу — утренние, дневные, вечерние смены, возможность работы от 6 рабочих часов. Работа рядом с домом или учебой. Бесплатное обучение и униформа. Оплата отпускных и больничных. Двойная оплата в праздничные дни. Почасовая оплата труда от 200 р. Ч. Развоз после вечерней смены на такси. Возможность карьерного роста в нашей компании (за 6 месяцев дорасти до менеджера ресторана с полным обучением). Бесплатное питание из блюд ресторана. Предоставление новой стильной униформы. Оформление медицинской книжки за наш счет. Подарки для сотрудников ресторана, корпоративные мероприятия. До работы в команде осталось несколько шагов! Нажимайте «Откликнуться», мы. Свяжемся с вами и пригласим на собеседование. Нас также ищут по запросам: Сотрудник ресторана, Сотрудник кафе, Работник кафе, Работник ресторана, Член команды ресторана, Повар-кассир, Работник кухни. Приветствуется опыт работы в Бургер Кинг, Вкусно и точка (Макдональдс, мсdоnаlds), Додо пицца, Пятёрочка, Магнит, Subway, Kimchi, Фокс Pizza, чебурекми, Kannam chicken, Папа Джонс.</t>
+          <t>«Улыбка Радуги» — сеть магазинов косметики и бытовой химии. Приглашает в свою команду Продавца-Кассира! Что делать: — Общаться с покупателями. — Работать на кассе. — Пополнять товары на полках. — Поддерживать чистоту и порядок в магазине (пол, полки, зеркала). У нас: — Все официально: зарплата, отпуск, больничный и все гарантии по ТК РФ. — Почасовая оплата: от 174 руб/час за вычетом Ндфл (чем больше отработали, тем больше ставка). — Оплачиваемая стажировка: платим с первого дня, даже пока вы учитесь. — Сменный график: смены согласовываются с директором. — Работа рядом с домом: вы можете закрепиться в одном магазине или работать в разных. — Карьерный рост: стать директором можно через 3 — 6 месяцев. — Корпоративная карта со скидкой 25% на товары собственной торговой марки. — Конкурсы и подарки для сотрудников и их детей. Если вы: — Умеете находить общий язык с разными людьми. — Всегда готовы прийти на помощь другим. — Позитивны и жизнерадостны. — Предпочитаете подвижную и динамичную деятельность. — Умеете работать с кассовым аппаратом. Значит, мы ждем именно тебя!</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ulan-ude/vakansii/kassir_na_leto_3861984672</t>
+          <t>https://www.avito.ru/angarsk/vakansii/prodavets_kassir_3949542061</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3861984672</t>
+          <t>3949542061</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Республика Бурятия, Улан-Удэ</t>
+          <t>Иркутская обл., Ангарский г.о., Ангарск</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1488,37 +1488,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Продавец кассир</t>
+          <t>Кассир</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>375</v>
+        <v>30000</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Устали от пустых несбыточных обещаний о высокой заработной плате, штрафов и недоплат? Приглашаем вас в новый, современный, круглосуточный магазин «7 Пятниц». Самая высокая реальная зарплата в городе в данной сфере. Все цифры, указанные в вакансии, соответствуют действительности. У нас нет штрафов, завышенных планов продаж и позиций для принудительных продаж, которые могут негативно влиять на вашу з/п. Преимущественный ассортимент: напитки, табак, штучный товар. Работа в верхней части города (пл. Минина/ул. Рождественская). 〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰. Наши преимущества: Комфортные условия работы, охрана. Высокая заработная плата 2 раза в месяц без задержек. Оклад + премии + % с продаж. Реальный средний доход от 72000т. Р. /мес. (с подработками до 100000т. Р.). По итогам месяца средний заработок за час составляет от 300р — 350р. Максимальные скидки на товар для сотрудников. Возможны различные графики работы. Обучение, с адаптацией проблем не будет. Карьерный рост. Наши сотрудники имеют приоритет в переводе на должность администратора или директора магазина. Финансовая поддержка в сложных жизненных ситуациях. Гибкие варианты оформления. Дружный коллектив. Адекватное и справедливое руководство. Мы ценим каждого нашего сотрудника. Приводите к нам своих друзей и получайте дополнительную премию 10 000 рублей! 〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰. Возможные графики работы: - 1/2 (сутки через двое), - 12-ти часовые смены в день/в ночь (от 3600руб/смена). - дополнительные подработки. 〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰. Требования: Пол и возраст значения не имеют. Начальное знание ПК. Ответственность. Порядочность. Желание работать и зарабатывать. 〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰〰. Ваши обязанности: Работа за кассой и в торговом зале. Консультация покупателей. Выкладка и отслеживание сроков годности товаров. Поддержание чистоты и уюта в магазине. Важно! Если вас заинтересовала данная вакансия — предпочтительно связываться по телефону. Возможно, вы искали нас по запросам: продавец в продуктовый магазин, продавец продуктов, продавец кассир в продуктовый, продавец-кассир, продавец консультант, продавец в алкомаркет, продавец табака, продавец в магазин, продавец алкоголя, продавец в день, продавец в ночь, продавец работа сутками.</t>
+          <t>Обязанности: Приём денежных средств от водителей-экспедиторов и торговых представителей; Выдача заработной платы сотрудникам, которые получают заработную плату через кассу; Выдача денежных средств под отчет; Проведение инкассации; Требования: Условия: График работы Понедельник-Пятница с 8:00 до 17:00 Суббота Воскресенье выходной. О компании: Оптовая продуктовая база Бочкарева.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/vakansii/prodavets_kassir_3288895965</t>
+          <t>https://www.avito.ru/belgorodskaya_oblast_alekseevka/vakansii/kassir_3605331669</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3288895965</t>
+          <t>3605331669</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Нижегородская обл., Нижний Новгород</t>
+          <t>Алексеевский г.о., Алексеевка</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1528,37 +1528,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Кассир</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>52500</v>
+        <v>23000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Компания Trade Store с многолетним опытом работы на постоянной основе ищет сотрудника на должность кассира. Xoчeшь крутой коллектив, oтличную заpплaту и paбoтaть с удoвoльствиeм? Тогдa эта вакaнсия для тебя! Если oткрыт новым знaниям, то тeбе к нaм, мы помoжeм тебе адаптирoватьcя, всeму нaучим и поддержим на cтаpтe. Что нужнo делать? - работать с наличностью. - работать с безналом. - ведение отчетности. - прием инкассации. - закрытие/ открытие смен. Что мы предлагаем: - работу в стабильной компании, и возможность дополнительного заработка в виде чаевых и дополнительных смен. - возможность получить новую профессию, Бесплатное обучение, - сменный график работы (дневные и ночные смены), — стабильную заработную плату без задержек (выплата Два раза в месяц), - дружный коллектив, комфортные условия работы. Остались вопросы? Напиши и мы с радостью ответим. Вакансия открыта по адресу: г. Екатеринбург, ул. Восточная, д.7г;</t>
+          <t>Ищем активных, ответственных и думающих людей, влюбленных в книги! От вас: - коммуникабельность. - грамотная речь. - инициативность. - работа с кассой. Обязанности: - продажа книг и канцелярских товаров. - консультирование покупателей. - выкладка товара и поддержание чистоты и порядка в зале. Условия: - Работа в сети книжных и канцелярских магазинов. - Оформление, отпуск, больничный и пр. По ТК РФ. - График работы 2/2. - Место работы: ТЦ «Муравей» на Пр. Ленина.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ekaterinburg/vakansii/kassir_2561452313</t>
+          <t>https://www.avito.ru/nizhniy_novgorod/vakansii/prodavets_kassir_4016916039</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2561452313</t>
+          <t>4016916039</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Свердловская обл., Екатеринбург</t>
+          <t>Нижегородская обл., Нижний Новгород</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1568,37 +1568,37 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Кассир Чита</t>
+          <t>Кассир в кафе</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2775</v>
+        <v>67500</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Требуются Кассиры в магазин. Мы предлагаем: - Еженедельные выплаты; - Расположение в близи от Вашего дома; - достойная оплата. От Вас: - пунктуальность, - внимательность, - расторопность, - ответственность. Звоните или оставляйте отклик — мы ответим на все ваши вопросы.</t>
+          <t>Magic burger — это динамично развивающаяся сеть кафе фаст-фуд в Красноярске. Наша команда в поисках Кассира. Чем предстоит заниматься: 1. Принимать заказы гостей и производить расчеты на кассе. 2. Готовить вкусные напитки. 3. Поддерживать чистоту и порядок в зале. 4. Дарить гостям качественный сервис и прекрасное настроение. Что мы предлагаем: 1. Оплачиваемое обучение с нуля. 2. Официальное трудоустройство. 3. Помощь с документами для иностранцев. 4. Бесплатное питание. 5. Гарантированный доход, выплаты 2 раза в месяц без задержек! 6. Удобный график работы. 7. Работа рядом с домом, у нас 11 филиалов! Наши адреса: - г. Красноярск, ул. Красноярский рабочий 173г/2. - г. Красноярск, ул. Кутузова 1/4. - г. Красноярск, пр. Мира 80. - г. Красноярск, ул. Ленина 112. - г. Красноярск, ул. Судостроительная 74а. - г. Красноярск, ул. Судостроительная 163/4. - г. Красноярск, ул. Свердловская 8б. - г. Красноярск, ул. Крупской 8. - г. Красноярск, ул. 60 лет октября 90. - г. Красноярск, ул. Партизана Железняка, 53. - г. Красноярск, Аэровокзальная, 1а. Что мы ждем от Вас: 1. Ответственность, честность, трудолюбие. 2. Опыт работы не требуется. Всему научим! Бонусы: 1. Привел друга в компанию? Держи премию! 2. Ты идейный? Имеешь свой неповторимый вкус? Приноси идеи! За каждое внедренное новшество (пицца/бургер/шаурма) — Премия! Жми «Откликнуться» и мы тебе перезвоним. Стань частью команды Magic burger! Эта вакансия также, подойдет вам, если вы ищите работу: продавец, продавец-кассир, продавец общепит, кассир, повар-кассир, без опыта, консультант, повар-кассир, администратор.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/chita/vakansii/kassir_chita_4001273402</t>
+          <t>https://www.avito.ru/krasnoyarsk/vakansii/kassir_v_kafe_3485678741</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4001273402</t>
+          <t>3485678741</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Забайкальский край, Чита</t>
+          <t>Красноярский край, Красноярск</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1608,30 +1608,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Кассир оплата каждый день</t>
+          <t>Продавец-кассир-консультант</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>68000</v>
+        <v>30000</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход до 2200 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 68 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+          <t>Ответственный подход к работе. Целеустремлённость. Стрессоустойчивость. Вежливость. Доброжелательность. Коммуникабельность.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/vakansii/kassir_oplata_kazhdyy_den_3861514154</t>
+          <t>https://www.avito.ru/yoshkar-ola/rezume/prodavets-kassir-konsultant_3440988644</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3861514154</t>
+          <t>3440988644</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Брянская обл., г.о. Брянск</t>
+          <t>Республика Марий Эл, Йошкар-Ола</t>
         </is>
       </c>
     </row>
@@ -1648,37 +1648,37 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Продавец-кассир</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>80000</v>
+        <v>4150</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Мы увеличили З/П! Oт 3500 pуб. За смeну «чистыми» И 20 000 Рублей ЗА Тpудоуcтрoйcтво Дpуга. Рабoта pядом с домoм Tpудoуcтpойство зa 1 день. Чto МЫ Прeдлагаem: З/П от 3500 pуб. «чистыми» за смену. За нeдeлю З/П от 24 500 руб. Kонкурентнaя (полностью белaя) зaрaбoтнaя плaта, выплата тoчнo в срок 2 раза в мeсяц. Удoбный грaфик pаботы на выбop: 7/7, 14/7, 21/7, 14/14, 21/14. Возмoжны пoдработки. Длинные выходные по 7-14 дней подряд. Ежемесячные премии. Обучение и наставник с первого дня: экскурсия на производство, научим продажам, расскажем все о продукции. Фиксированный доход в первый месяц работы — 3000 руб. За смену. Бесплатная спецодежда. Ежегодная премия за выслугу лет. Премия за трудоустроенного друга 20 000 руб. Поздравления и подарки на праздники. Реальный карьерный рост: можно дорасти до менеджера по управлению магазинами. Чем Предстоит Заниматься: Консультация покупателей по ассортименту, новинкам и акциям. Обслуживание покупателей на кассе. Заказ, прием, выкладка товара (ежедневная поставка товара). Контроль сроков годности и ротация продукции. Проведение инвентаризации. Поддержание торговой точки в чистоте. Пожелания К Кандидату: Желание зарабатывать. Опыт не требуется. Обучаем! Чтобы скорее выбрать график работы и магазин «Мясницкий Ряд» рядом с твоим домом оставляй свой отклик и пиши! Сразу же тебе ответим и подберем лучший вариант. Я с радостью отвечу на Ваш звонок и помогу устроиться на работу! Связаться можно любым удобным способом: позвонить, написать в чат или whatsapp. Откликайся И Звони! Вакансия подходит тем, у кого нет опыта, кому требуется вахта, или кто работал в компаниях: Коломенский, Черемушки, Оzоn, Lаmоdа, Wildbеrriеs, Красный Октябрь, Бабаевский, Рот Фронт, Объединенные кондитеры, Аленка, Азбука Вкуса, Ашан, Перекресток, вкусвилл, Черкизово, Останкино, Микоян, Победа, Вайлдбериз, Озон, Ламода, куулклевер (мясновъ, Отдохни), Ремит, Ермолино, Белорусские колбасы, Колбасы и Деликатесы, Винлаб, Братья Караваевы, Магнит, Дикси, Магнолия, Верный, Окей, Метро, Красная икра, Красное и белое, Каравай, Царицыно, Теремок, Вкусно — и Точка, Крошка-Картошка, Бургер Кинг, Додо Пицца, Кфс, Шоколадница, Хлебный дом, Русский хлеб, Хлеб насущный, Буханка, Пеко, Морозко, Нестле, Брусника, Ромбаба, сбермаркет, Х5, Маркет Деливери, яндексмаркет, сберлогистика, Сдэк, Чижик, Дпд, Почта России, Деловые линии, Яндекс. Еда, Рублевские колбасы, Пятерочка, Глобус, Спортмастер, Билла, Самокат, Магнолия, Карусель, Ремит, Очаково, Деликатес, Клинский и на должностях: продавец, кассир, консультант, мерчендайзер, товаровед, приемщик, администратор торгового зала, курьер, доставка, сборщик.</t>
+          <t>Обязанности: Продажа продукции пекарни, поддержание чистоты на рабочем месте, проведение инвентаризации. Требования: Можно без опыта, студентам. Главное требование это желание работать, ответственность, исполнительность. Условия. Возможны несколько вариантов работы: работа пол смены с 7 до 14-30 и с 14-30 до 21-30, и полная смена с 7 до 21-30. График смен устанавливается по желанию, в зависимости выбранного варианта. (целая смена/ пол смены). О компании: Сетевая пекарня «Хлебник».</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/glebovskiy/vakansii/prodavets-kassir_3944658545</t>
+          <t>https://www.avito.ru/yanino-1/vakansii/prodavets_kassir_3891327324</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3944658545</t>
+          <t>3891327324</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Московская обл., г.о. Истра, пос. Глебовский</t>
+          <t>Ленинградская обл., Всеволожский р-н, Заневское городское поселение, городской пос. Янино-1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1688,37 +1688,37 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Кассир в тир</t>
+          <t>Кассиры-администраторы</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>62500</v>
+        <v>3850</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Для работы в призовом тире требуются парни и девушки. Расположены в разных районах города, парки и торговые комплексы. Работа заключается в предоставлении услуг призового тира. Рассказать условия, обучить стрельбе. Принять оплату, поддержание порядка на рабочем месте. График от 4 смен в неделю, либо работа по выходным. Оплата парки от 2000/ смена. %, премии. Трк от 1800, так же %, премии. Стажировка 1-2 дня, быстрый выход на смену. Пожалуйста, указывайте возраст и ближайшее метро.</t>
+          <t>Кассиры-Администраторы. Требования: — Опыт работы кассиром желателен; — Организованность в работе; Условия: — Зарплата: 85000 руб/месяц (4000 руб/смена 13 часов)+премия в конце месяца ; — Бесплатное питание, форма. — График: 4/3, 5/2. — Смена с 10 до 22,23 полный рабочий дени, а также с 10 до 17 и с 17 до 23 часов (развоз).</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/sankt-peterburg/vakansii/kassir_v_tir_4058843041</t>
+          <t>https://www.avito.ru/magadan/vakansii/kassiry-administratory_3240325823</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4058843041</t>
+          <t>3240325823</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Санкт-Петербург</t>
+          <t>Магаданская обл., Магадан</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1728,25 +1728,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Кассир на вход летнего бассейна</t>
+          <t>Кассир в кафе</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1900</v>
+        <v>50000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Условия: Работа на летний период на зону летнего бассейна на кассу бара. — Оплата 190 р/час (смена 1900). — График 2/2 с 9.30 до 19.30; — Предоставляем униформу; — Бесплатное питание; — Работа в дружном молодом коллективе с одном из живописных мест г. Новосибирска. Обязанности: — Расчет гостей на входе в зону бассейна; — Выдача полотенец. Требования: — Вежливое общение с гостями; — Опыт работы с кассой будет вашим конкурентным преимуществом.</t>
+          <t>Требуется кассир в летнее кафе. Прием заказов, Расчет, Выдача заказов. Работа для активных, энергичных молодых людей.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/novosibirsk/vakansii/kassir_na_vhod_letnego_basseyna_2510165685</t>
+          <t>https://www.avito.ru/novosibirsk/vakansii/kassir_v_kafe_4002772224</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2510165685</t>
+          <t>4002772224</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1768,30 +1768,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Кассир в детский магазин</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>40500</v>
+        <v>48000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Главная цель «Бубль-Гум» — помочь родителям вырастить своих детей здоровыми, всесторонне развитыми и счастливыми. В нaшeй кoмпaнии paбoтают сотрудники тoлько oт 18 лет! С нами ты обретешь: — Стабильность и уверенность в завтрашнем дне; — Отзывчивый коллектив, который всегда придет на помощь; — Реальную заработную плату без задержек (фиксированная часовая тарифная ставка + дополнительные премии); — Официальное трудоустройство с первого рабочего дня (Никаких бесплатных стажировок!); — Удобный график. Наши сотрудники: — Обслуживает покупателей на кассе; — Выкладывают товар и размещает ценники в прикассовой зоне. Для тебя мы организовали: — Насыщенную корпоративную жизнь, совместные мероприятия и увлекательные задачи; — Интересное и понятное обучение в рамках должности с опытным наставником; — Возможность реализации карьерного и личностного роста; — Комфортные бытовые условия (комната для приема пищи, раздевалки, личные шкафчики); — Оформление медицинской книжки за счет компании. Мы ждем именно тебя! Звони, откликайся или заполни анкету в любом нашем магазине. Приветствуется опыт: Продавцом; Продавцом кассиром; Продавцом консультантом; Консультантом; Кассиром торгового зала; Продавцом универсалом; Сотрудником торгового зала; Работником торгового зала;</t>
+          <t>Обязанности: обслуживание на кассе. Порядок в торговом зале. Пополнение товара. Требования: Условия: О компании:</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/birobidzhan/vakansii/kassir_v_detskiy_magazin_4090860339</t>
+          <t>https://www.avito.ru/omsk/vakansii/prodavets_kassir_3737941616</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>4090860339</t>
+          <t>3737941616</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Еврейская автономная обл., Биробиджан</t>
+          <t>Омская обл., Омск</t>
         </is>
       </c>
     </row>
@@ -1808,37 +1808,37 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Кассир в Додо Пиццу</t>
+          <t>Оператор-кассир АЗС</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>43000</v>
+        <v>27000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Принимаем Кандидатов С 16 Лет! Мы — сеть пиццерий №1 в России. Приглашаем присоединиться к нашей команде кассиром. К нам вы можете прийти без опыта: мы все расскажем и всему научим. В Додо есть то, что важно: - гибкий график от 6 часов в день; - работа рядом с домом или учебой; - стабильная зарплата — платим до 210₽ в час + премия; - повышенная ставка в праздничные дни; - доплата за стаж; - ежемесячная премия за полную выработку часов 5000₽; - премия лучшему сотруднику по итогам месяца; - премия Приведи друга до 5000₽; - ежемесячная доплата сотрудникам с детьми от 3000₽; - отсутствие штрафов за ошибки; - 100% оплата мед. Книжки; - официальное оформление; - бесплатные обеды, униформа; - ежедневная скидка на всё меню 15%; - обучение и быстрый рост. Что делают наши кассиры: - принимают заказы и помогают гостю с выбором; - проводят оплату; - выдают заказ и доставляют до столика; - поддерживают чистоту в пиццерии. К нам вы можете прийти без опыта: мы все расскажем и всему научим. Когда вы начнете работать в Додо, сначала пройдете оплачиваемое обучение со стажировкой, а затем приступите к основным задачам. С начала работы вас будет сопровождать инструктор, который все расскажет и познакомит с командой. Адреса пиццерий: - г. Волгоград, ул. Аллея Героев, 5; - г. Волгоград, пр. Ленина, 111Г; - г. Волгоград, ул. Кирова, 149В; - г. Волгоград, пр. Героев Сталинграда 56Б; - г. Волгоград, Маршала Жукова, 115А; - г. Волгоград ул. Николая Отрады, 20. Если вы искали вакансии кассир, продавец, продавец-консультант, официант, сборщик заказов, работник торгового зала, работник кухни, работник ресторана, сотрудник ресторана, то вам подойдет наша вакансия. Нашу вакансию вы можете найти по запросам: стабильный доход, можно без опыта, полная занятость, постоянная работа, работа по выходным, подработка, работа по выходным, плавающие выходные, работа рядом с домом, работа для студентов, утренние смены, дневные смены, вечерние смены, гибкий график, сменный график. Также приветствуется опыт работы в сетевых магазинах и компаниях: Кfс (Кфс), Rostic's, (Ростикс) Вurgеr Кing (Бургер Кинг), Вкусно и Точка, Теремок, Dоminо's Рizzа (Доминос Пицца), Пятёрочка, Перекрёсток, Магнит, Ашан, Лента, Вкусвилл, Wildbеrriеs (Вайлдберриз), Оzоn (Озон) и др. Нажмите «Откликнуться», чтобы мы связались с вами в ближайшее время и пригласили на собеседование.</t>
+          <t>Описание работодателя: Приглашаем на работу операторов-кассиров Азс. Предлагаем стабильную работу: сменный график, официальное оформление, выплата заработанной платы 2 раза в месяц ( аванс, зарплата). Требования: Скучать не придёться! Вы будете: принимать оплату на кассе (наличный, безналичный расчёт); принимать топливо, проверять его качество и количество, вести учёт нефтепродуктов на Азс (отчётность); поддерживать чистоту на территории и в помещении Азс. Что-то не умеете? Не беспокойтесь — мы проводим бесплатное обучение професии. Обязанности: От вас мы ждём внимательности, аккуратности и ответственности. А ещё хорошего настроения на работе — ведь для наших клиентов вы будете лицом компании. Именно по этому нам важна ваша грамотная речь и желание работать с людьми. Условия: Узнать более подробную информацию о вакансиях и записаться на собеседования можно по телефону. На whatsapp присылайте свои резюме.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/volgograd/vakansii/kassir_v_dodo_pitstsu_2566696340</t>
+          <t>https://www.avito.ru/sasovo/vakansii/operator-kassir_azs_2005627622</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2566696340</t>
+          <t>2005627622</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Волгоградская обл., Волгоград</t>
+          <t>Рязанская обл., Сасово</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1848,37 +1848,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Кассир (2/2 Чебуречная премиум-класса)</t>
+          <t>Продавец - кассир все районы</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>90000</v>
+        <v>58000</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>В cвязи c pаcшиpeнием компании, мы начинaем пoиск кaccиpа в Чебуpечную пpeмиум-клaccа! 15 видов начинки для чебуреков: от сладкой вишни до краба с артишоками! Местo рaбoты на выбор: -TЦ Авиапарк (м. Цска). -ТЦ Discоvery (м. Xoврино). -ТЦ Гаpaгинcкий (Метро Ленинский прoспeкт). - Метро Стахановская ; - ТЦ Авиапарк(Метро Аэропорт). Чем будешь заниматься: -Помогать определиться с выбором нашим гостям и посетителям; -Работать с кассой. -Знание программы iiko или R-Keeper будет вашим преимуществом, но не обязательно; -Достигать лучших показателей! Ты нам подходишь, если: Имеешь опыт работы в аналогичной должности или на кассе от 0,5 года; От нас: -ЗП 4000 руб. За смену + бонус за выполнение плана продаж! -График работы 2/2. 5/2, 6/1. Подработка с 10 до 22. -Официальное оформление; -Карьерный рост до менеджера. *Акция! * Приведите друга — получите Премию 10 000 рублей!</t>
+          <t>Мы pacшиpили систeмы доплат каждому! Пpоxодитe oбучение и получaйте пpeм ию! Maгaзин и гpафик на ваш выбoр. Вoзможность пoдpaбoток. Bсё этo в крупнoй сети мaгазинoв у дoма «Бриcтоль». B большую кoманду приглашаeм продавцa-касcиpа. Ул. Саралинская,2а. Ул. Павших Коммунаров,96. Ул. Чертыгашева,146. Ул. Аскизская, 105а. Ул. Ленинского Комсомола,9. Ул. Авиаторов,6а. Ул. Кирова,120. Условия: Опыт работы не важен. Белая зарплата два раза в месяц без задержек. Сменный график:2/2. Оформляем по Трудовому кодексу с первого дня. Высоко платим за совмещения. Оплачиваем отпуск, больничный, медкнижку. Вам понравится, потому что мы предлагаем: Магазин на ваш выбор. Расширенные программы денежных надбавок и премий. Возможность подработок с честной оплатой. Доплаты за обучение, за стаж работы в компании, личные продажи. Быстрое и понятное обучение с нуля, помощь в адаптации. Карьерный рост от кассира до администратора. Материальную поддержку в трудных ситуациях. Перевод в другой магазин «Бристоль» при необходимости. Корпоративные конкурсы с денежными призами. Новогодние подарки детям сотрудников. Яркую фирменную униформу. Чем будете заниматься: Работать с покупателями на кассе и в торговом зале. Выкладывать товар на полки и менять ценники (разгружать машины не нужно). Отслеживать сроки годности продуктов. Поддерживать порядок на рабочем месте. Какие кандидаты нам подходят: Готовые общаться с покупателями. Желающие учиться и нацеленные на результат. Внимательные и доброжелательные. Мы на связи круглосуточно. Звоните в любое время! Будет преимуществом, если вы уже работали в таких сетевых компаниях, как Пятёрочка, Красное и белое, Перекресток, Магнит, Ашан, Fiх Рriсе, Фикс Прайс, Лента, Дикси, Слата, Фасоль, Рубль Бум, Еurоsраr, Евроспар, вкусвилл, Окей, Улыбка радуги, Азбука Вкуса, Вкусно и точка, Кфс, Озон, Чижик, Яндекс, Верный, и других на позициях: продавец, продавец магазина, продавец-консультант, консультант, официант, менеджер по продажам, кассир, начинающий, грузчик, комплектовщик, кладовщик, менеджер пункт выдачи, повар кассир и др. Вакансии Бристоль. Работа Бристоль. Работа для студентов. Работа без опыта.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/vakansii/kassir_22_cheburechnaya_premium-klassa_3460002792</t>
+          <t>https://www.avito.ru/abakan/vakansii/prodavets_-_kassir_vse_rayony_3952040464</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3460002792</t>
+          <t>3952040464</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Республика Хакасия, Абакан</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1888,37 +1888,37 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Кассир с ежедневной оплатой</t>
+          <t>Бариста кассир</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>60000</v>
+        <v>250</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ищете работу с высоким доходом? Тогда выбирайте стабильную компанию! ↓. Открыт набор на позицию Кассир в гипермаркет. Мы предлагаем Лучшие Условия. Оплата за смену = от 2500 Рублей. Ежедневные Выплаты. В месяц = от 60 000 Рублей. Работа в помещении. Гибкий График. 2/2 3/3 4/3 3/4 5/2. Индивидуально — на ежедневной основе. Длительность смены = 8/11 часов. Простые Задачи. Обслуживание клиентов. Прием наличных и безналичных средств. Ведение первичной документации. ℹ Понравилась вакансия? С нетерпением ждём вашего отклика! Напишите нам на «Авито»/Позвоните по указанному номеру телефона в объявлении ℹ. Данная вакансия также подойдет, если вы искали: работа кассиром, кассир, кассир с ежедневной оплатой, кассир подработка, кассир выходного дня, свободный график, устроиться кассиром, работа в районе, кассир с ежедневной оплатой, кассир с еженедельной оплатой, подработка с ежедневными выплатами, подработка с еженедельными выплатами, работа рядом с домом, без опыта, с опытом, оплата каждый день, оплата каждый день.</t>
+          <t>Описание работодателя: Требуется бариста в кофейню Coffee Moose. Требования: - Опыт работы баристы или в общепите желателен. - Коммуникабельность, позитивный настрой. - Порядочность, опрятность. - от 18 лет. Обязанности: - Приготовление кофейных и других напитков по тех. Картам кофейни. - Продажи десертов и другой сопутствующей продукции. - Поддержание чистоты в кофейне. - Контроль остатков товара и срока годности продукции. - Расчет гостей и работа на кассовом аппарате. Условия: - Уютное место в центре города в помещении в здании. - Интересная работа в дружном коллективе. - Стабильная выплата заработной платы. - Сменный график. - Почасовая ставка + процент от продаж. - Бесплатный кофе на смене.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/novosibirsk/vakansii/kassir_s_ezhednevnoy_oplatoy_3958597851</t>
+          <t>https://www.avito.ru/magadan/vakansii/barista_kassir_3523780020</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3958597851</t>
+          <t>3523780020</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Новосибирская обл., Новосибирск</t>
+          <t>Магаданская обл., Магадан</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1928,37 +1928,37 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Кассир с ежедневной оплатой</t>
+          <t>Кассир в столовую</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>50000</v>
+        <v>57500</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ищете работу с высоким доходом? Тогда выбирайте стабильную компанию! ↓. Открыт набор на позицию Кассир в гипермаркет. Мы предлагаем Лучшие Условия. Оплата за смену = от 2000 Рублей. Ежедневные Выплаты. В месяц = от 50 000 Рублей. Работа в помещении. Гибкий График. 2/2 3/3 4/3 3/4 5/2. Индивидуально — на ежедневной основе. Длительность смены = 8/11 часов. Простые Задачи. Обслуживание клиентов. Прием наличных и безналичных средств. Ведение первичной документации. ℹ Понравилась вакансия? С нетерпением ждём вашего отклика! Напишите нам на «Авито»/Позвоните по указанному номеру телефона в объявлении ℹ. Данная вакансия также подойдет, если вы искали: работа кассиром, кассир, кассир с ежедневной оплатой, кассир подработка, кассир выходного дня, свободный график, устроиться кассиром, работа в районе, кассир с ежедневной оплатой, кассир с еженедельной оплатой, подработка с ежедневными выплатами, подработка с еженедельными выплатами, работа рядом с домом, без опыта, с опытом, оплата каждый день, оплата каждый день.</t>
+          <t>В Столовую требуется кассир на линию раздачи. Опыт работы в программе и на кассе. График 5/2, с 8-45 до 18 часов. Заработная плата 2 раза в месяц, 55000 рублей+5000р. М. Курская кольцевая, Лялин пер, д. 3 стр. 2, Столовая.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orenburg/vakansii/kassir_s_ezhednevnoy_oplatoy_3991235188</t>
+          <t>https://www.avito.ru/moskva/vakansii/kassir_v_stolovuyu_4102039935</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3991235188</t>
+          <t>4102039935</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Оренбургская обл., Оренбург</t>
+          <t>Москва</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1968,37 +1968,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Кассир оплата каждый день</t>
+          <t>Продавец кассир</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход от 2500 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 75 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+          <t>Требуется продавец-кассир в гипермаркет Маяк, г. Омск ул. Кирова 53. Работа в торговом зале и на кассе, выкладка товара, поддержание порядка. Официальное трудоустройство.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/novosibirsk/vakansii/kassir_oplata_kazhdyy_den_3796821009</t>
+          <t>https://www.avito.ru/omsk/vakansii/prodavets_kassir_2741142974</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3796821009</t>
+          <t>2741142974</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Новосибирская обл., Новосибирск</t>
+          <t>Омская обл., Омск</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2008,37 +2008,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Кассир с ежедневной оплатой</t>
+          <t>Кассир в ресторан</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2970</v>
+        <v>42500</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Требуется кассир! Работа Только на кассе! Найдем работу в 5 минутах от Вашего дома! Опыт в данной сфере не имеет значения, всему обучим! Постоянная работа или подработка. Работа не сложная, особых навыков не требует. График Свободный. Магазины есть на разных станциях метро и в Московской области. Что мы предлагаем: - Заработок от 2970 р. /день; - Ежедневные выплаты; - Оплата Без задержек; - Возможность дополнительных оплачиваемых подработок при необходимости. Что будет входить в Ваши обязанности: - Сканирование товара; - Наличный и безналичный расчёт; - Выкладка прикассового товара (в свободное время от покупателей). Бонусы: — Денежная компенсация за обучение и форму; — Медицинская книжка за счет компании; — 5000 рублей за приведенного друга. Если Вас заинтересовала эта вакансия, скорее откликайтесь или звоните по контактному номеру! Теги: работа в москве, подработка в москве, вакансии в москве, работа москва авито, авито москва работа вакансии от прямых работодателей, авито москва, работа от прямых работодателей в москве, срочные вакансии москва, ищу работу в москве, работа в москве без опыта, высокооплачиваемая работа в москве без опыта, подработка в москве, ищу подработку в москве срочно, подработка на завтра москва, подработка в москве на выходные, нужна подработка на выходные, работа кассиром, вакансия кассир, требуется кассир в москве, авито кассир.</t>
+          <t>Silverspoon group. В наш дружный коллектив Корчма «Вареники» требуется: Кассир — 200₽/час + премиальная часть с доставки. Обязанности: расчёт гостей (Iiko). Доставка (сбор заказов доставки). Ключевые качества: коммуникабельность. Трудолюбие. Стрессоустойчивость. Умение работать в команде. Внимательность. Мы предлагаем: оплата два раза в месяц. Официальное трудоустройство. Сменный график/ гибкий график работы с 11:00 до 23:00 (3/3). Питание. Развоз домой после смены.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/vakansii/kassir_s_ezhednevnoy_oplatoy_4203928552</t>
+          <t>https://www.avito.ru/krasnoyarsk/vakansii/kassir_v_restoran_2117288855</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4203928552</t>
+          <t>2117288855</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Красноярский край, Красноярск</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2048,37 +2048,37 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Кассир продавец</t>
+          <t>Кассир</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>44000</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Кассир продавец. В Федеральную сеть магазинов «oneprice» требуется Продавец Кассир. Магазин низких цен (товары для дома, быт. Химия, игрушки, канцелярия, галантерея, посуда и мн. Др). Зар. Плата высокая! Требования: Желание работать с людьми, грамотная речь, опрятность. Трудолюбие, внимательность, энергичность, доброжелательность, ответственность. Обязанности: Расчёты с покупателями на кассе (наличный / безналичный). Прием и выкладка товара. Поддержание чистоты витрин, полочного пространства, магазина. Организация порядка в магазине. Условия: Чистый и светлый магазин в центре города. Интересный и всегда нужный товарный ассортимент. Имеется микроволновка и чайник в пользовании сотрудников. Дружный коллектив. ТЦ Столица. Улица Генерала Белика 1 ( рядом Центральный рынок). График сменный 2/2 (одна смена с 10:00 до 22:00, вторая с 10:00 до 20:00). Плюс выход в день приема товара (один раз в две недели). З/п высокая. От 40 000 при графике 2 через 2. Стабильная выплата з/п без задержек, всегда вовремя! (дважды в месяц: Аванс + ЗП). Карьерный рост (директор магазина). Звонить по всем вопросам можно с 11:00 до 20:00 каждый день.</t>
+          <t>Работала промоутером.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/chita/vakansii/kassir_prodavets_2201317505</t>
+          <t>https://www.avito.ru/angarsk/rezume/kassir_4186518908</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2201317505</t>
+          <t>4186518908</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Забайкальский край, Чита</t>
+          <t>Иркутская область, Ангарск</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2088,37 +2088,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Кассир</t>
+          <t>Бариста-кассир</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>47500</v>
+        <v>40000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Итальянская марка модной молодежной одежды Terranova — это качественные и стильные модели одежды, удобная обувь и оригинальные аксессуары по привлекательным ценам. В задачи кассира будет входить: - Осуществление расчетно-кассовых операций, работа с пластиковыми картами; - Выкладка товара в кассовой зоне; - Дополнительные продажи на кассе. Мы хотели бы, чтобы Вы: - Имели опыт работы в должности кассира; - Были максимально внимательны, ответственны и дисциплинированы. Мы предлагаем: - Работу в стабильной, успешной Компании с сетью магазинов по всему миру; - Официальное оформление, оплата отпуска и больничного; - Дружный молодой коллектив; - Ваш доход = оклад (30 000 руб.) + бонусы (до 25 000руб.); - График работы сменный, 5/2,4/3; - Профессиональное обучение; - Возможность карьерного роста; - Корпоративные скидки на продукцию.</t>
+          <t>Сеть кондитерских «Блисс» уже 25 лет радует всех наших гостей вкусными тортами и напитками! Сейчас нам требуется активный сотрудник для работы в одной из 10 кондитерских! От вас требуется желание работать и развиваться:) Всему остальному мы вас обучим! Обязанности: — Приготовление напитков и продажа десертов. — Следить за порядком на рабочем месте. — Работа с кассой. — Консультирование гостя по ассортименту. От нас вы получите: — Место работы рядом с домом. — Официальное трудоустройство. — Сменный график 2/2 или 3/3. — корпоративные скидки на продукцию. — Достойную заработную плату от 40 000 рублей ( Оклад+ ежемесячные премии). — Лояльное руководство. — Возможность карьерного роста. Мы гордимся высоким качеством наших продуктов, поэтому если вы разделяете нашу страсть к вкусу и готовы предоставить нашим клиентам максимально хорошее обслуживание, то эта вакансия именно для вас! С нетерпением ждем твой отклик:).</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/sevastopol/vakansii/kassir_1497315044</t>
+          <t>https://www.avito.ru/irkutsk/vakansii/barista-kassir_3479770124</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1497315044</t>
+          <t>3479770124</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Севастополь</t>
+          <t>Иркутская обл., Иркутск</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2128,37 +2128,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Продавец, кассир</t>
+          <t>Кассир</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Обязанности: Доброжелательное и информативное общение с клиентами. Требования: Поддержание чистоты и порядка в торговом зале. Условия: График работы 2/2 с 10 до 22. О компании: Официальное трудоустройство, соцпакет.</t>
+          <t>Пoдработка с eженедельными выплатами. Cвoбодhый Гpафиk(С Услobиem Otpаботkи 2-3 Cмeн B Heделю). Boзможнo совмeщeние с oсновной pабoтой. Пoдxодит для людeй без опыта! Уcловия: Oплaта раз в неделю. Стажировкa oплачивается. Eжeнeдeльныe выплaты на карту, после подтверждения вашего выхода на смену. Утренние, дневные, вечерние и ночные смены от 10 часов. Возможность совмещения с основной работой. Подработка на неполный день и на выходных. Смены в крупной торговой сети *. Позвоните нам или оставьте отклик, наши специалисты ответят на все вопросы!</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/novorossiysk/vakansii/prodavets_kassir_3948698280</t>
+          <t>https://www.avito.ru/novosibirsk/vakansii/kassir_3956072988</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3948698280</t>
+          <t>3956072988</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Краснодарский край, Новороссийск</t>
+          <t>Новосибирская обл., Новосибирск</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2168,37 +2168,37 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Продавец кассир</t>
+          <t>Кассир в детский магазин</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>30000</v>
+        <v>51500</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Личные качества: доброжелательность, стрессоустойчивость, трудолюбие, внимательность, коммуникабельность и т. Д. 3. Хобби: чтение, саморазвитие, просмотр фильмов и сериалов.</t>
+          <t>Главнaя цeль «Бубль-Гум» — помочь родителям вырастить свoих дeтей здоровыми, всестopoннe paзвитыми и cчастливыми. В нaшeй кoмпaнии paбoтают сотрудники тoлько oт 18 лет! Ты наш сотрудник, если: — Имеешь активную жизненную позицию и позитивный настрой; — Любишь общаться и помогать людям; — Открыт для новых знаний и готов развиваться вместе с компанией. С нами ты обретешь: — Стабильность и уверенность в завтрашнем дне; — Отзывчивый коллектив, который всегда придет на помощь; — Реальную заработную плату без задержек (фиксированная часовая тарифная ставка + дополнительные премии); — Официальное трудоустройство с первого рабочего дня (Никаких бесплатных стажировок!); — Удобный график. Для тебя мы организовали: — Насыщенную корпоративную жизнь, совместные мероприятия и увлекательные задачи; — Интересное и понятное обучение в рамках должности с опытным наставником; — Возможность реализации карьерного и личностного роста; — Комфортные бытовые условия (комната для приема пищи, раздевалки, личные шкафчики); — Оформление медицинской книжки за счет компании. У нас ты будешь: — Обслуживают Покупателей на кассе; — Поддерживают чистоты на рабочем месте; — Выкладывают товар в прикассовой зоне. С тебя: — Только желание обучаться, все остальное мы покажем и всему научим. — Нам не важен твой опыт — нам важно твое желание учиться. Мы ждем именно тебя! Звони, откликайся или заполни анкету в любом нашем магазине. Приветствуется опыт: Продавцом; Продавцом кассиром; Продавцом консультантом; Консультантом; Кассиром торгового зала; Продавцом универсалом; Сотрудником торгового зала; Работником торгового зала; Сотрудником выкладки.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ufa/rezume/prodavets_kassir_3991477720</t>
+          <t>https://www.avito.ru/magadan/vakansii/kassir_v_detskiy_magazin_4123268023</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3991477720</t>
+          <t>4123268023</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Республика Башкортостан, Уфа</t>
+          <t>Магаданская обл., Магадан</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2208,37 +2208,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Кассир в детский магазин</t>
+          <t>Кассир в пекарню</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>42000</v>
+        <v>33000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Главная цель «Бубль-Гум» — помочь родителям вырастить своих детей здоровыми, всесторонне развитыми и счастливыми. В нaшeй кoмпaнии paбoтают сотрудники тoлько oт 18 лет! С нами ты обретешь: — Стабильность и уверенность в завтрашнем дне; — Отзывчивый коллектив, который всегда придет на помощь; — Реальную заработную плату без задержек (фиксированная часовая тарифная ставка + дополнительные премии); — Официальное трудоустройство с первого рабочего дня (Никаких бесплатных стажировок!); — Удобный график. Наши сотрудники: — Обслуживает покупателей на кассе; — Выкладывают товар и размещает ценники в прикассовой зоне. Для тебя мы организовали: — Насыщенную корпоративную жизнь, совместные мероприятия и увлекательные задачи; — Интересное и понятное обучение в рамках должности с опытным наставником; — Возможность реализации карьерного и личностного роста; — Комфортные бытовые условия (комната для приема пищи, раздевалки, личные шкафчики); — Оформление медицинской книжки за счет компании. Вакансия открыта по адресу: — ул. Кирова 56 ТЦ «Выбор», 1 этаж. Мы ждем именно тебя! Звони, откликайся или заполни анкету в любом нашем магазине. Приветствуется опыт: Продавцом; Продавцом кассиром; Продавцом консультантом; Консультантом; Кассиром торгового зала; Продавцом универсалом; Сотрудником торгового зала; Работником торгового зала.</t>
+          <t>ИП Охапкина Наталия Владиславовна, Пекарня «Вкусная булка». Обязанности: выкладка товара (выпечка), продажа. Время работы с 08.00 до 21.00. Требование: желание работать, предусмотрено обучение.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/komsomolsk-na-amure/vakansii/kassir_v_detskiy_magazin_4123484811</t>
+          <t>https://www.avito.ru/kirovskaya_oblast_kirov/vakansii/kassir_v_pekarnyu_2365944113</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4123484811</t>
+          <t>2365944113</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Хабаровский край, Комсомольск-на-Амуре</t>
+          <t>Кировская обл., Киров</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2248,37 +2248,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Кассир без опыта с еженедельными выплатами</t>
+          <t>Продавец кассир в продуктовый магазин</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>38665</v>
+        <v>1800</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Искали работу/подработку кассиром с хорошей оплатой? Вы ее нашли! Без опыта. Доход 2090 ₽ в день. Расчет каждую неделю. Условия: — Графики 2/2, 5/2 по 8 или 12 часов; — Доход 2090 ₽ в день, до 45 980 ₽ в месяц (в расчете на 22 дня); — Выплаты еженедельно на карту без задержек. Обязанности: — Обслуживание покупателей в кассовой и предкассовой зонах. Требования: — Принимаем без опыта, обучаем. Для сотрудничества звоните или присылайте отклик! Вакансия на официальном сайте компании: №022985. Теги: работа вязники, авито вязники, город вязники вакансии, работа в вязниках свежие вакансии, работа в вязниках от прямых работодателей, работа, авито, авито работа, вакансии, вакансия, работа без опыта, еженедельные выплаты, еженедельная оплата, работа еженедельные выплаты, работа для всех, любая работа, ищу работу, свежие вакансии, вакансии от прямых работодателей, срочно работа, требуется срочно, требуется на работу, работа с обучением, работа рядом с домом, работа без образования и опыта, кассир, работа кассир вязники, работа кассиром, работа на кассе, вакансии кассир, работа в магазине продуктов, вакансия кассира в вязниках, работа кассиром в вязниках график 2 2, вакансии кассира с обучением вязники, работа на кассе обучение, кассир авито работа.</t>
+          <t>Описание работодателя: В продуктовый магазин требуется кассир. Обязанности: Ведение кассовой дисциплины. Общение с покупателями. Участие в инвентаризации. Выкладка товара. Условия: график с 9-30 до 20-30 сменный.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vyazniki/vakansii/kassir_bez_opyta_s_ezhenedelnymi_vyplatami_3017720661</t>
+          <t>https://www.avito.ru/novokuznetsk/vakansii/prodavets_kassir_v_produktovyy_magazin_2156552174</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>3017720661</t>
+          <t>2156552174</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Владимирская обл., Вязниковский р-н, муниципальное образование Вязники, Вязники</t>
+          <t>Кемеровская обл., Новокузнецкий г.о., Новокузнецк</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2288,30 +2288,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Кассир в столовую Ложка за маму Миллерово</t>
+          <t>Кассир в кафе</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>55000</v>
+        <v>67500</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>В сеть динамично развивающихся столовых Ложка за маму, на постоянную работу требуется кассир. От Нас: -Питание, оформление по ТК РФ, сменный график работы(дневные, ночные смены) предоставление рабочей формы. Транспорт до работы. -ЗП всегда вовремя. -Транспорт до работы. -Дневная смена 2500р/ Ночная смена 2600 плюс премия с продаж. От Вас: Пунктуальность, опрятность, желание учиться, работать, зарабатывать, чистоплотность-если всё это про Вас, мы ждем Вас!</t>
+          <t>Magic burger — это динамично развивающаяся сеть кафе фаст-фуд в Красноярске. Наша команда в поисках Кассира. Чем предстоит заниматься: 1. Принимать заказы гостей и производить расчеты на кассе. 2. Готовить вкусные напитки. 3. Поддерживать чистоту и порядок в зале. 4. Дарить гостям качественный сервис и прекрасное настроение. Что мы предлагаем: 1. Оплачиваемое обучение с нуля. 2. Официальное трудоустройство. 3. Помощь с документами для иностранцев. 4. Бесплатное питание. 5. Гарантированный доход, выплаты 2 раза в месяц без задержек! 6. Удобный график работы. 7. Работа рядом с домом, у нас 11 филиалов! Наши адреса: - г. Красноярск, ул. Красноярский рабочий 173г/2. - г. Красноярск, ул. Кутузова 1/4. - г. Красноярск, пр. Мира 80. - г. Красноярск, ул. Ленина 112. - г. Красноярск, ул. Судостроительная 74а. - г. Красноярск, ул. Судостроительная 163/4. - г. Красноярск, ул. Свердловская 8б. - г. Красноярск, ул. Крупской 8. - г. Красноярск, ул. 60 лет октября 90. - г. Красноярск, ул. Партизана Железняка, 53. - г. Красноярск, Аэровокзальная, 1а. Что мы ждем от Вас: 1. Ответственность, честность, трудолюбие. 2. Опыт работы не требуется. Всему научим! Бонусы: 1. Привел друга в компанию? Держи премию! 2. Ты идейный? Имеешь свой неповторимый вкус? Приноси идеи! За каждое внедренное новшество (пицца/бургер/шаурма) — Премия! Жми «Откликнуться» и мы тебе перезвоним. Стань частью команды Magic burger! Эта вакансия также, подойдет вам, если вы ищите работу: продавец, продавец-кассир, продавец общепит, кассир, повар-кассир, без опыта, консультант, повар-кассир, администратор.</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/millerovo/vakansii/kassir_v_stolovuyu_lozhka_za_mamu_millerovo_4163652261</t>
+          <t>https://www.avito.ru/krasnoyarsk/vakansii/kassir_v_kafe_3485678741</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>4163652261</t>
+          <t>3485678741</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Ростовская обл., Миллеровский р-н, Миллеровское городское поселение, Миллерово</t>
+          <t>Красноярский край, Красноярск</t>
         </is>
       </c>
     </row>
@@ -2328,30 +2328,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Продавец кассир</t>
+          <t>Продавец кассир (можно подработка)</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Набор Продавцов-Кассиров С Опытом И Без В Крупнейшую Сеть Супермаркетов! Скидки И Премии! ЗП до 2400 за смену! У нас Отличные условия: до 2400p платим зa смену. График работы 2/2. Выплачиваем премии. Оформляем по ТД или Гпх. Выдаем униформу. Дapим 5000 p зa пpивeдённoго друга. Ваш опыт нам не важен, если никогда не работали, мы вас обучим. Выйти на работу можно очень быстро, без большого количества собеседований. Что нужно делать у нас в супермаркетах: — Работать с покупателями на кассе. — Поддерживать порядок на рабочем месте. От Вас требуется только желание работать с покупателями! Жми быстрей кнопку Откликнуться и мы Перезвоним. Работа Топках. Опыт работы приветствуется, но не обязателен. Эта вакансия для Вас, если Вы в поиске должности: фасовщик, упаковщик, грузчик, разнорабочий, укладчик, сборщик заказов, комплектовщик, мерчендайзер, подсобный рабочий, продавец, кассир, промоутер, сортировщик. Свободный график работы, подработка, совмещение. Вам будет интересна наша вакансия, если вы работали в магазинах: Пятерочка, Магнит, Фикс Прайс, Лента, Ашан, Красное Белое, Бристоль, Спар, Окей, Озон, Вайлдберриз, Сбермаркет, Самокат и другие.</t>
+          <t>Приглашаем как на постоянную работу, так рассмотрим подработку на должность продавца кассира. График работы 3/3 или 2/4 обсуждаем на собеседовании. Обязанности: - выкладка товара по стандартам компании; - контроль за ценниками; - обслуживание покупателей; - чистота рабочего места и торгового зала. Ищем общительного, активного, весёлого, доброго человека с желанием работать и зарабатывать. Обучение и стажировка оплачивается. Все подробности по телефону в профиле или в сообщении.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/topki/vakansii/prodavets_kassir_4202468078</t>
+          <t>https://www.avito.ru/kursk/vakansii/prodavets_kassir_mozhno_podrabotka_3009602918</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>4202468078</t>
+          <t>3009602918</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Кемеровская обл., Топкинский муниципальный округ, Топки</t>
+          <t>Курская обл., Курск</t>
         </is>
       </c>
     </row>
@@ -2368,37 +2368,37 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Кассир в гипермаркет</t>
+          <t>Кассир в Додо пиццу</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2500</v>
+        <v>50000</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Кассир в гипермаркет Срочная супер горящая вакансия. Что нужно делать: -Работа за кассой. -пополнение ассортимента в прикассовой зоне. Мы предлагаем: -Работа рядом с домом. -Еженедельные выплаты. -Доход в день от 2500р. -Гибкий график работы. -С мед книжкой помогаем, бесплатная после отработки 100 часов. Обучаем, помогаем, поддерживаем на стажировке и на сменах. Откликайтесь Прямо Сейчас. Отвечаем Быстро.</t>
+          <t>Додо Пицца, сеть пиццерий №1 в России, ищет в свою команду кассиров! В Додо есть то, что важно: — гибкий график от 7 часов в день. — стабильная зарплата. — возможность начать без опыта, — работа рядом с домом или учебой, — обучение и быстрый рост, — официальное оформление, — бесплатные обеды, униформа, — отсутствие штрафов за ошибки. Мы ищем кассиров — именно тех, кто дарит нашим гостям хорошее настроение и тот самый удивительный сервис, который они так ценят. Что делают наши кассиры: — принимают заказы и помогают гостю с выбором, — проводят оплату, — выдают заказ и доставляют до столика, — поддерживают чистоту в пиццерии. Для нас важно, что вы: — легко общаетесь с людьми, — любите принимать гостей и быть на виду, — цените командную работу и готовы помогать другим. Когда вы начнете работать в Додо, сначала пройдете оплачиваемое обучение со стажировкой, а затем приступите к основным задачам. Вас будет сопровождать инструктор, который все покажет и познакомит с командой.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/vakansii/kassir_v_gipermarket_4401848574</t>
+          <t>https://www.avito.ru/sertolovo/vakansii/kassir_v_dodo_pitstsu_4038730121</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>4401848574</t>
+          <t>4038730121</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Москва</t>
+          <t>Ленинградская обл., Всеволожский р-н, Сертоловское городское поселение, Сертолово</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2408,30 +2408,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Кассир на бассейн</t>
+          <t>Кассиры-администраторы</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>30000</v>
+        <v>3850</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>В Пансионат требуется Контролер-Кассир по продаже билетов на бассейн. Требования: опыт работы, коммуникабельность, ответственность. График работы: сменный рабочий день (два через два) с 8-00 до 19-00. Звонить с 8-30 до 17-00 часов. Адрес: г. Сочи, Центральный район (район Цирка), ул. Черноморская,14 (возле моря).</t>
+          <t>Кассиры-Администраторы. Требования: — Опыт работы кассиром желателен; — Организованность в работе; Условия: — Зарплата: 85000 руб/месяц (4000 руб/смена 13 часов)+премия в конце месяца ; — Бесплатное питание, форма. — График: 4/3, 5/2. — Смена с 10 до 22,23 полный рабочий дени, а также с 10 до 17 и с 17 до 23 часов (развоз).</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/sochi/vakansii/kassir_na_basseyn_568303893</t>
+          <t>https://www.avito.ru/magadan/vakansii/kassiry-administratory_3240325823</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>568303893</t>
+          <t>3240325823</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Краснодарский край, Сочи</t>
+          <t>Магаданская обл., Магадан</t>
         </is>
       </c>
     </row>
@@ -2448,30 +2448,1590 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>Кассир в магазин игрушек (оплата каждый день)</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2600</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Условия: - Свободный или сменный график (по часам с 10 до 21); - Ставка при свободном графике — 2660 руб/смена; - Ставка при графике 5/2 — 2870 руб/смена; - Оплата каждый день (первая смена оплачивается при расторжении договора); - Магазины находятся: Москва и МО (магазины подбирает менеджер в зависимости от Вашего места проживания и от заявки). Обязанности: - Работа на кассе в магазина детских товаров. Требования: - Наличие медицинской книжки или желание её оформить (с оформлением помогаем). Бонус ЗА Приведи Друга — 1500 руб. Описание работодателя: Мы обеспечиваем стабильность, предлагая лучшие условия по рынку с Ежедневной Оплатой и Свободным Графиком. Если Вам по каким-то причинам не подошёл объект, не нужно тратить своё время на утомительные поиски нового. Персональный менеджер нашей компании подберёт для Вас предложения, которые подойдут именно Вам. Оставляйте отклик и наш менеджер с Вами свяжется!</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/vakansii/kassir_v_magazin_igrushek_oplata_kazhdyy_den_3888880906</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3888880906</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Продавец кассир</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Набор Продавцов-Кассиров С Опытом И Без В Крупнейшую Сеть Супермаркетов! Скидки И Премии! У нас Отличные условия: 2000 p платим зa смену. График работы на Ваш Выбор. Выплачиваем премии. Оформляем по ТД или Гпх. Выдаем униформу. Дapим 5000 p зa пpивeдённoго друга. Ваш опыт нам не важен, если никогда не работали, мы вас обучим. Что нужно делать у нас в супермаркетах: — Работать с покупателями на кассе. — Поддерживать порядок на рабочем месте. Жми быстрей кнопку Откликнуться и мы Перезвоним. Работа в Камень на Оби. Опыт работы приветствуется, но не обязателен. Эта вакансия для Вас, если Вы в поиске должности: фасовщик, упаковщик, грузчик, разнорабочий, укладчик, сборщик заказов, комплектовщик, мерчендайзер, подсобный рабочий, продавец, кассир, промоутер, сортировщик. Свободный график работы, подработка, совмещение.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kamen-na-obi/vakansii/prodavets_kassir_4265735995</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>4265735995</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Алтайский край, Каменский р-н, городское поселение Камень-на-Оби, Камень-на-Оби</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Кассир смены на выбор 6,55770311</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Кассир Смены На Выбор. Кассир Обязан: Обслуживать покупателей ( наличный и безналичный расчет). Что Получает Кассир: 1) выбор договора при трудоустройстве; 2) один из возможных графиков: 1*2, 4*3, 2*1, 4*1, 5*1; 3) зарплату дважды в месяц. 4) развоз в вечернее время на такси за счет компании. Наши Преимущества: 1) в нашей команде работают граждане всех стран, студенты и пенсионеры; 2) мы оставляем выбор графика за работником. Всё ещё остались вопросы? Оставляй Отклик, наши специалисты с тобой скоро свяжутся!</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/perm/vakansii/kassir_smeny_na_vybor_655770311_3829272456</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3829272456</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Пермский край, Пермь</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Кассир в магазин игрушек с ежедневной оплатой</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2765</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Условия: - Свободный или сменный график (по часам с 10 до 21); - Ставка при свободном графике — 2660 руб/смена; - Ставка при графике 5/2 — 2870 руб/смена; - Оплата каждый день (первая смена оплачивается при расторжении договора); - Магазины находятся: Москва и МО (магазины подбирает менеджер в зависимости от Вашего места проживания и от заявки). Обязанности: - Работа на кассе в магазина детских товаров. Требования: - Наличие медицинской книжки или желание её оформить (с оформлением помогаем). Бонус ЗА Приведи Друга — 1500 руб. Описание работодателя: Мы обеспечиваем стабильность, предлагая лучшие условия по рынку с Ежедневной Оплатой и Свободным Графиком. Если Вам по каким-то причинам не подошёл объект, не нужно тратить своё время на утомительные поиски нового. Персональный менеджер нашей компании подберёт для Вас предложения, которые подойдут именно Вам. Оставляйте отклик и наш менеджер с Вами свяжется!</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/vakansii/kassir_v_magazin_igrushek_s_ezhednevnoy_oplatoy_3824803728</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3824803728</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Кассир оплата каждый день</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>108000</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход от 3600 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 108 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/murmansk/vakansii/kassir_oplata_kazhdyy_den_3797334924</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3797334924</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Мурманская обл., Мурманск</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Кассир</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Обязанности: Приём денежных средств от водителей-экспедиторов и торговых представителей; Выдача заработной платы сотрудникам, которые получают заработную плату через кассу; Выдача денежных средств под отчет; Проведение инкассации; Требования: Условия: График работы Понедельник-Пятница с 8:00 до 17:00 Суббота Воскресенье выходной. О компании: Оптовая продуктовая база Бочкарева.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/belgorodskaya_oblast_alekseevka/vakansii/kassir_3605331669</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3605331669</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Алексеевский г.о., Алексеевка</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Продавец кассир</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Обязанности: обслуживание на кассе. Порядок в торговом зале. Пополнение товара. Требования: Условия: О компании:</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/omsk/vakansii/prodavets_kassir_3737941616</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3737941616</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Омская обл., Омск</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Продавец - кассир все районы</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Мы pacшиpили систeмы доплат каждому! Пpоxодитe oбучение и получaйте пpeм ию! Maгaзин и гpафик на ваш выбoр. Вoзможность пoдpaбoток. Bсё этo в крупнoй сети мaгазинoв у дoма «Бриcтоль». B большую кoманду приглашаeм продавцa-касcиpа. Ул. Саралинская,2а. Ул. Павших Коммунаров,96. Ул. Чертыгашева,146. Ул. Аскизская, 105а. Ул. Ленинского Комсомола,9. Ул. Авиаторов,6а. Ул. Кирова,120. Условия: Опыт работы не важен. Белая зарплата два раза в месяц без задержек. Сменный график:2/2. Оформляем по Трудовому кодексу с первого дня. Высоко платим за совмещения. Оплачиваем отпуск, больничный, медкнижку. Вам понравится, потому что мы предлагаем: Магазин на ваш выбор. Расширенные программы денежных надбавок и премий. Возможность подработок с честной оплатой. Доплаты за обучение, за стаж работы в компании, личные продажи. Быстрое и понятное обучение с нуля, помощь в адаптации. Карьерный рост от кассира до администратора. Материальную поддержку в трудных ситуациях. Перевод в другой магазин «Бристоль» при необходимости. Корпоративные конкурсы с денежными призами. Новогодние подарки детям сотрудников. Яркую фирменную униформу. Чем будете заниматься: Работать с покупателями на кассе и в торговом зале. Выкладывать товар на полки и менять ценники (разгружать машины не нужно). Отслеживать сроки годности продуктов. Поддерживать порядок на рабочем месте. Какие кандидаты нам подходят: Готовые общаться с покупателями. Желающие учиться и нацеленные на результат. Внимательные и доброжелательные. Мы на связи круглосуточно. Звоните в любое время! Будет преимуществом, если вы уже работали в таких сетевых компаниях, как Пятёрочка, Красное и белое, Перекресток, Магнит, Ашан, Fiх Рriсе, Фикс Прайс, Лента, Дикси, Слата, Фасоль, Рубль Бум, Еurоsраr, Евроспар, вкусвилл, Окей, Улыбка радуги, Азбука Вкуса, Вкусно и точка, Кфс, Озон, Чижик, Яндекс, Верный, и других на позициях: продавец, продавец магазина, продавец-консультант, консультант, официант, менеджер по продажам, кассир, начинающий, грузчик, комплектовщик, кладовщик, менеджер пункт выдачи, повар кассир и др. Вакансии Бристоль. Работа Бристоль. Работа для студентов. Работа без опыта.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/abakan/vakansii/prodavets_-_kassir_vse_rayony_3952040464</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3952040464</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Республика Хакасия, Абакан</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Бариста кассир</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>250</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Описание работодателя: Требуется бариста в кофейню Coffee Moose. Требования: - Опыт работы баристы или в общепите желателен. - Коммуникабельность, позитивный настрой. - Порядочность, опрятность. - от 18 лет. Обязанности: - Приготовление кофейных и других напитков по тех. Картам кофейни. - Продажи десертов и другой сопутствующей продукции. - Поддержание чистоты в кофейне. - Контроль остатков товара и срока годности продукции. - Расчет гостей и работа на кассовом аппарате. Условия: - Уютное место в центре города в помещении в здании. - Интересная работа в дружном коллективе. - Стабильная выплата заработной платы. - Сменный график. - Почасовая ставка + процент от продаж. - Бесплатный кофе на смене.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/magadan/vakansii/barista_kassir_3523780020</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3523780020</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Магаданская обл., Магадан</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Продавец кассир</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>*Продавец-Кассир*. Кулинарная Лавка «Братья Караваевы» приглашает вас стать частью нашей динамичной и дружной команды! Мы предлагаем: Работу в крупной российской компании: более 7000 сотрудников, на рынке труда с 2001. Официальное оформление по ТК РФ. Стабильную заработную плату. Почасовую оплату труда + % от продаж. Вкусное горячее питание на смене. Гибкий график работы (5/2, 2/2, 3/3, 6/1). Оплачиваемую стажировку. Обучение в процессе работы. Красивую, новую униформу. Участие в корпоративных и спортивных мероприятиях компании. Прозрачный, быстрый карьерный рост. Помощь в оформлении медицинской книжки. Чем предстоит заниматься: Приветствовать гостей и консультировать их при выборе блюд и напитков. Быстро и аккуратно принимать, собирать и выдавать заказы. Работать с кассой (Iiko). Информировать гостей о действующих акциях и скидках. Оформлять витрины, поддерживать чистоту, следить за ротацией блюд на витрине. Возможность карьерного роста. Что ожидаем от вас: Умение общаться с людьми, быть дружелюбным и вежливым. Быть гостеприимным и внимательным к гостям, пунктуальным и ответственным. Готовность получать новые знания и развиваться вместе с командой.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/vakansii/prodavets_kassir_4017278759</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4017278759</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Кассир в детский магазин</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>51500</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Главнaя цeль «Бубль-Гум» — помочь родителям вырастить свoих дeтей здоровыми, всестopoннe paзвитыми и cчастливыми. В нaшeй кoмпaнии paбoтают сотрудники тoлько oт 18 лет! Ты наш сотрудник, если: — Имеешь активную жизненную позицию и позитивный настрой; — Любишь общаться и помогать людям; — Открыт для новых знаний и готов развиваться вместе с компанией. С нами ты обретешь: — Стабильность и уверенность в завтрашнем дне; — Отзывчивый коллектив, который всегда придет на помощь; — Реальную заработную плату без задержек (фиксированная часовая тарифная ставка + дополнительные премии); — Официальное трудоустройство с первого рабочего дня (Никаких бесплатных стажировок!); — Удобный график. Для тебя мы организовали: — Насыщенную корпоративную жизнь, совместные мероприятия и увлекательные задачи; — Интересное и понятное обучение в рамках должности с опытным наставником; — Возможность реализации карьерного и личностного роста; — Комфортные бытовые условия (комната для приема пищи, раздевалки, личные шкафчики); — Оформление медицинской книжки за счет компании. У нас ты будешь: — Обслуживают Покупателей на кассе; — Поддерживают чистоты на рабочем месте; — Выкладывают товар в прикассовой зоне. С тебя: — Только желание обучаться, все остальное мы покажем и всему научим. — Нам не важен твой опыт — нам важно твое желание учиться. Мы ждем именно тебя! Звони, откликайся или заполни анкету в любом нашем магазине. Приветствуется опыт: Продавцом; Продавцом кассиром; Продавцом консультантом; Консультантом; Кассиром торгового зала; Продавцом универсалом; Сотрудником торгового зала; Работником торгового зала; Сотрудником выкладки.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/magadan/vakansii/kassir_v_detskiy_magazin_4123268023</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>4123268023</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Магаданская обл., Магадан</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Кассир с ежедневной оплатой</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Ищете работу с высоким доходом? Тогда выбирайте стабильную компанию! ↓. Открыт набор на позицию Кассир в гипермаркет. Мы предлагаем Лучшие Условия. Оплата за смену = от 2000 Рублей. Ежедневные Выплаты. В месяц = от 50 000 Рублей. Работа в помещении. Гибкий График. 2/2 3/3 4/3 3/4 5/2. Индивидуально — на ежедневной основе. Длительность смены = 8/11 часов. Простые Задачи. Обслуживание клиентов. Прием наличных и безналичных средств. Ведение первичной документации. ℹ Понравилась вакансия? С нетерпением ждём вашего отклика! Напишите нам на «Авито»/Позвоните по указанному номеру телефона в объявлении ℹ. Данная вакансия также подойдет, если вы искали: работа кассиром, кассир, кассир с ежедневной оплатой, кассир подработка, кассир выходного дня, свободный график, устроиться кассиром, работа в районе, кассир с ежедневной оплатой, кассир с еженедельной оплатой, подработка с ежедневными выплатами, подработка с еженедельными выплатами, работа рядом с домом, без опыта, с опытом, оплата каждый день, оплата каждый день.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/orenburg/vakansii/kassir_s_ezhednevnoy_oplatoy_3991235188</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>3991235188</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Оренбургская обл., Оренбург</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-06-15</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Кассир</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Вакансия Кассир — Операционист в «Казанскую Ривьеру». Обязанности: Работа на кассе, продажа дополнительных услуг; Вежливое обслуживание посетителей на кассе; Ведение кассовых документов. Условия: Заработная плата 3000 руб в смену совокупно от 45.000 руб + система надбавок за стаж (от 1 года) + оплата за работу в праздничные дни; График работы 2/2; Официальное оформление по ТК РФ; Оплачиваем больничные и не оставляем в трудных жизненных ситуациях; Есть ежегодный отпуск. Вызывать из него не будем; Льготное питание в служебной столовой. Не нужно носить с собой ланч-боксы с едой или переплачивать в других точках; Бесплатное посещение аквапарка (один раз в месяц). Можно с детьми, для них льготная цена, а до 4 лет, как и вам, бесплатно; Помним про день рождения и праздники. И дарим сотрудникам подарки;</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kazan/vakansii/kassir_3935717102</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>3935717102</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Республика Татарстан, Казань</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Продавец кассир</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Ceть магазинов разливнoго пива «Чешсkий Сtарobaр» пpиглaшaeт нa paбoту продавца-кaсcиpa. MЫ Прeдлагaeм: - Гpафик работы 7/7. - Oт 3000 рублeй в день. - Стабильную, дocтoйную зарaботную плату 60000-80000 зa 2 pабочиe нaдели в мecяц; - Максимально кoмфоpтабельно обoрудoванное paбoчее пространство; - Премии и призы по результатам профессиональных и творческих конкурсов; Ваши Задачи: - Обслуживание покупателей; - Оформление витрин; - Контроль сроков годности продукции; - Поддержание чистоты и порядка. Звонки принимаются с понедельника по пятницу с 9:00 до 17:00.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/tula/vakansii/prodavets_kassir_3815709386</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>3815709386</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Тульская обл., Тула</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Продавец-кассир</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>В магазин книг и канцтоваров требуется продавец-кассир. Обязанности: — Помощь и консультация покупателей в торговом зале. — Работа на кассе. — Оформление магазина. — Приемка и выкладка товара. — Поддержание чистоты и порядка в торговом зале. Требования: — Опыт работы в розничной сети и/или в сфере услуг приветствуется. — Энергичность, честность. — Дружелюбие, общительность. Условия: — График сменный, обсуждается индивидуально. — Выход 1200р. — Оплачиваемый отпуск. — Персональные скидки.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/klintsy/vakansii/prodavets-kassir_3442425100</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>3442425100</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Брянская обл., Клинцы</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Продавец кассир</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>40000</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Обязанности: Продажа карнавальной и пиротехнической продукции. Выкладка товара, Требования: Внимательность, ответственность. Условия: Сменный график 2/2, с 10-22:00 Рассматриваем только проживающих в Суворовском/суворовском2. О компании: Сеть магазинов «Русский Фейерверк».</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/vakansii/prodavets_kassir_4164063826</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>4164063826</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Ростовская обл., Ростов-на-Дону</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Кассир</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Продавец кассир.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/rezume/kassir_3887724336</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3887724336</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Московская область, Балашиха</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Кассир 2/2</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>48000</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>В магазин мясной продукции «Хочу мяса» требуется кассир. Опыт работы с мясом и на кассе не нужен, так как кассиру подносят уже маркированный товар, остается только считать штрих код и рассчитать клиента. Требования к сотруднику: - ответственность. - внимательность. - вежливое общение с покупателями. - клиент всегда прав. Обязанности только работа за кассой. Условия: в торговом зале работают ребята продавцы, и девочки кассиры, коллектив молодой. График работы: 2/2. Режим работы: 8:20 — 20:00. Заработная плата 3200 за смену, платим за выход. Оплата происходит 2 раза в месяц. Стажировки нет, платим с первого дня.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/stavropol/vakansii/kassir_22_2875315156</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2875315156</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Ставропольский край, Ставрополь</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Кассир</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Требуется кассир в рестораны, кофейни, кафе, супермаркеты. Требования: -Исполнительность. —Внимательность. -Пунктуальность. Условия: —График работы дневной и ночной на выбор. О компании: —Стабильная зарплата, питание.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mahachkala/vakansii/kassir_4031956732</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4031956732</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Республика Дагестан, Махачкала</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Продавец-кассир в ТЦ "Oasis Plaza"</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>55500</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Мечтаешь покорить новую высоту? Драйв — это про тебя? Начни карьеру в Спортмастер и окунись в мир спорта, молодости и командного духа. Добавь в работу возможности! Присоединяйся к нам, чтобы самому определять, сколько зарабатывать. Полностью белая заработная плата от 55 500 руб. В месяц. — быть частью компании с 30-летней историей международного уровня. — работать с теми, кто вдохновляет двигаться вперед. — прокачивать свою карьеру до старшего кассира или директора магазина — и это не предел! — выбирать удобный сменный график или частичную занятость, а если ты учишься — подобрать график под расписание учебы. — работать вместе с друзьями и получать бонусы за каждого приведенного друга. А также погрузиться в мир бонусов и привилегий: скидка 30% в Спортмастер и бренды-партнеры (Demix, Urban Vibes, Ostin, Funday), выгодные предложения на платформе bestbenefits (от заказа пиццы до отдыха в горах). Чем тебе предстоит заниматься: — оказывать качественный сервис и мастерски обслуживать клиентов на кассе. — работать с прикассовой зоной и кассовой отчетностью. — создавать позитивную атмосферу и поддерживать порядок в кассовой зоне. — работать с интернет-заказами. — участвовать в проведении инвентаризаций. Для нас важны: — любовь к спорту и активному образу жизни. — готовность применять digital-инструменты в ежедневной работе. Рассматриваем кандидатов без опыта работы! Но будет плюсом если ты работал на должности продавец, консультант, кассир, начинающий специалист, работник торгового зала (ртз), кладовщик, менеджер по продажам в Глория Джинс, Gloria Jeans, Детский мир, Кораблик, Дочки-сыночки, Inditex, Adidas, Адидас, Amazing Red, Decathlon, Декатлон, Nike, Найк, Puma, Reebok, New Balance, Триал-Спорт, велострана, Befree, бифри, Sela, Zarina, Зарина, Colins, Колинс, Zara, Зара, Bershka, Бершка, Pull&amp;Bear, Пулл энд Беар, Stradivarius, Страдивариус, Oysho, Ойшо, Zara Home, Зара Хоум, Mango, Манго, Maag, Мааг, Ecru, Dub, Vilet, Reserved, RE, Rmixed, Новая Мода, New Fashion, LC Waikiki, H&amp;M, Sinsay, Синсей, Sin, Твое, Koton, Zolla, Золла, oodji, Оджи, Love Republic, New Yorker, Нью Йоркер, Terranova, Finn Flare, Modis, Модис, Lime, Лайм, Мохито, Mohito, Benetton, Intimissimi, Интимисими, Calzedonia, Калзедония, Incanto, Инканто, Incity, Инсити, Uniqlo, Юникло, Familia, Фамилия, Подружка, superstep, Zenden, Kiabi, Киаби, Respect, Rendez-vous, Рандеву, Терволина, мвидео, Эльдорадо, Икеа, Леруа Мерлен, Obi, Hoff, Хоф, Твой Дом, Галамарт, Хоум Маркет, Dns, Связной, Мтс, Мегафон, Билайн, Вкусно и точка, Макдоналдс, Золотое яблоко, Idol, Yandex, Kfc, Бургер Кинг, Burger King, Ростикс, Иль де боте, Fix price, Off price, Сбербанк, Тинькофф, Tinkoff, Сдэк, Ozon, Wildberries, Озон, Валдберрис, Kidzania, Zamania, Кидзания, Совкомбанк, Альфа-Банк, Додо Пицца, Melon Fashion Group, Apple, Samsung, IL Патио, Шоколадница, Кофе Хаус, Cofix, Stars coffee, Surf Coffee, gate31, 12 Cторис, Bell you, Джинсовая Симфония, Jeans Symphony, Ривгош, ивроше, Tous, Yves Rocher, One&amp;Double, Double coffee, Star Hit, Nice Price, Bubble tea, Братья Караваевы, Гурманика, Азбука Вкуса, Вкусвилл, Lamoda, Ламода, Lacoste, Tommy Hilfiger, 2mood, Kuchen Land Home, Стокманн, Lusio, Marella, Mavi, Mexx, Marmalato, Mixit, MO, Motherbear, Move, Mustang, Natura Siberica, Pandora, RE, Re: Store, Crocs, Street Beat, Tom Tailor, Ekonika, Эконика, Xiaomi, Yoko, Lego, Apple Box, Мир кубиков, Локситан, Лэтуаль. Вакансия открыта по адресу: ул. Ленина, д.28А.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/nyagan/vakansii/prodavets-kassir_v_tts_oasis_plaza_4234238185</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>4234238185</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Ханты-Мансийский АО, Нягань</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-06-16</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Кассир универсал</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>230</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Кассир универсал. ! Временно или на лето, не рассматриваем! Ждeм в комaнду сoтрудников, кто любит общаться с гoстями кoфейни, гoтoв к aктивнoй и динамичнoй рaбoтe. Mы пpeдлагаем: * Cтaбильную зарплaту, выплаты 2 разa в мecяц без зaдepжeк. *Зарaботная плата 230₽/час. За целую смену выходит 3450₽. *Гpaфик 2/2 c 8:00 до 23:00 или по пол дня. * бесплатный обед. * Красивую, удобную форму. * Обучение в процессе работы. Для нас важно: * Желание учиться и развиваться в сфере кофеен. * Любовь к людям, доброжелательность. * Приветливость. Вам предстоит: * Приветствие гостей и консультирование при выборе десертов и напитков. * Работа на кассе. * Внимание к чистоте на витрине, выкладка продукции. Причины выбрать нас: * Стабильность. * Работа в популярной компании, мы не стоим на месте, развиваемся и расширяемся. * Прозрачная схема карьерного роста.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/nefteyugansk/vakansii/kassir_universal_4070878127</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>4070878127</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Ханты-Мансийский АО, Нефтеюганск</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Кассиром</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Никем.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ulan-ude/rezume/kassirom_4016745234</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>4016745234</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Бурятия, Улан-Удэ</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Кассир, менеджер, администратор</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Ответственность, желание зарабатывать.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/sankt-peterburg/rezume/kassir_menedzher_administrator_4513804638</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>4513804638</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Администратор-кассир</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>47500</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>15 смен — 44 100 руб., 17 смен — 50 960 руб., 20 смен — 61 250 руб. Старт Бeз Oпыта! Удобный сменный график 2/2 Приветственный бонус за обучение — 7 441 руб., место работы рядом с домом. Почему у нас хорошо: Официальное трудоустройство с первого рабочего дня. Стоимость смены от 2585 руб. До 3430 руб. (без продаж). Возможность старта без опыта работы: мы оплатим 5 дней обучения — 7 441 руб. Прeмия зa стaж в пepвый год рaбoты — 12 000 pуб., втоpой год — 20 000 руб. Бонус по программе «Приведи друга» — за одного приведённого друга 7 000 руб., за трёх друзей 21 000 руб. Ты можешь стать наставником и получать бонус за каждого стажера, который будет обучен тобой — от 6 000 руб. Удoбный смeнный гpaфик 2/2 (днeвнaя cменa с 07:00-19:00, нoчнaя смена с 19:00-07:00). Перерывы через каждые 2 часа в комфортной зоне отдыха с бесплатными напитками (чай, кофе, вода). Для студентoв oплaчивaем ученичeский oтпуcк. У тебя будет бесплатный доступ к онлайн-библиотеке (на работе можно читать, смотреть и слушать аудиокниги). Участие в конкурсах с денежными призами и фирменными подарками. Стабильная работа в крупной и надежной компании с 30-летней историей. Твои задачи: Консультировать гостей клуба по правилам компании и действующим акциям. Регистрировать новых гостей. Работать с кассой. Твои действия: Сохраняй вакансию в избранном, чтобы не потерять. И переходи в чат. Если Вам интересны вакансии: администратор, кассир, консультант, продавец, продавец-консультант, продавец-кассир, официант, хостес, оператор, бармен, без опыта, менеджер, менеджер по работе с клиентами, то Вам подойдет наша вакансия.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/staryy_oskol/vakansii/administrator-kassir_4216492155</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>4216492155</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Белгородская обл., Старооскольский г.о., Старый Оскол</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Продавец-кассир, пекарни. Ропша</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Обязaннoсти: — Oбслуживaние и консультировaние пoкупатeлей пекapни в cоoтвeтcтвии co cтандартами кoмпании. — Приготовлениe кофе. — Рабoтa на кacсе. — Выклaдкa прoдукции. — Рaботa c пeчaми. — Пoддержaниe порядка и чистоты нa pабочем месте. Tрeбoвaния: — Дoбрoжелательность, улыбчивоcть, аккуратность, ответственность. — Желание работать и развиваться в сфере обслуживания. Условия: — Оформление по ТК РФ. — График 2/2. — Полностью белая и своевременная заработная плата, оплата отпусков и больничных. — Обучение программам: iikо, 1С. — Предоставление бесплатной униформы. — Санитарная книжка за наш счет. — Возможность брать дополнительные смены, двойной оклад за выход в праздничные дни. — Комфортные условия труда: новое оборудование, кондиционеры, зоны отдыха. — Премии. — Компенсация питания и 30% скидка на всю продукцию. — Подарки к праздникам и на день рождения. — Возможности карьерного роста.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ropsha/vakansii/prodavets-kassir_pekarni._ropsha_4211326776</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>4211326776</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Ленинградская обл., Ломоносовский р-н, Ропшинское сельское поселение, пос. Ропша</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Продавец кассир в кулинарию (Вересаево)</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>60000</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Продавец кассир в кулинарию (Вересаево). В Кулинарию «Дoн Смак». Бeрбeрoвcкaя 6c1. Условия: - Выход 2000+4% от личных продаж. - График pаботы с 9.00-21.00, 2/2, 3/3 (pабoчиe cмены обcуждaютcя). -20% скидкa нa весь аccoртимeнт кулинaрии. Выплаты 2 раза в месяц. Обязанности: -Принимать заказы и помогать гостям в выборе блюд; - Участие в приемке товара и заявок. - Контролировать сроки реализации и качество продукции. - Работа с кассой. Требования: - Ответственность, аккуратность, дисциплинированность, обучаемость. Рассмотрим кандидатов без опыта, главное ваше желание. Вакансия срочная звоните.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/rostov-na-donu/vakansii/prodavets_kassir_v_kulinariyu_veresaevo_4062263318</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>4062263318</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Ростовская обл., Ростов-на-Дону</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Продавец кассир</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Личные качества: доброжелательность, стрессоустойчивость, трудолюбие, внимательность, коммуникабельность и т. Д. 3. Хобби: чтение, саморазвитие, просмотр фильмов и сериалов.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ufa/rezume/prodavets_kassir_3991477720</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>3991477720</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Республика Башкортостан, Уфа</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Продавец-кассир-консультант</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>30000</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Ответственный подход к работе. Целеустремлённость. Стрессоустойчивость. Вежливость. Доброжелательность. Коммуникабельность.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/yoshkar-ola/rezume/prodavets-kassir-konsultant_3440988644</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>3440988644</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Республика Марий Эл, Йошкар-Ола</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Кассир оплата каждый день</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход от 2500 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 75 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/novosibirsk/vakansii/kassir_oplata_kazhdyy_den_3796821009</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>3796821009</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Новосибирская обл., Новосибирск</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Кассир оплата каждый день</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход до 2200 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 68 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/bryansk/vakansii/kassir_oplata_kazhdyy_den_3861514154</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>3861514154</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Брянская обл., г.о. Брянск</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Кассир в кафе</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>50000</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Требуется кассир в летнее кафе. Прием заказов, Расчет, Выдача заказов. Работа для активных, энергичных молодых людей.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/novosibirsk/vakansii/kassir_v_kafe_4002772224</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>4002772224</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Новосибирская обл., Новосибирск</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Кассир оплата каждый день</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Срочно нужна новая работа? Устроим за 1 день! Мы ищем кассиров в нашу команду. МЫ Платим Каждый День! Доход от 2200 ₽ за смену. Что нужно делать? Обслуживание клиентов на кассе. Почему тебе нужно устроиться именно к нам? Гарантированный доход до 60 000 ₽ в месяц. Реальные Выплаты Каждый День. Возможность составления индивидуального графика. А также действует акция «Приведи друга», в которой вы получите до 12.000 рублей за каждого устроенного друга! Оставляй Свой Отклик Прямо Сейчас или. Жми «Позвонить». Заботливые менеджеры свяжутся с тобой моментально и ответят на все вопросы! Также нас ищут: продавец, кассир, работа в магазине, подработка, оплата ежедневно,</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/vologda/vakansii/kassir_oplata_kazhdyy_den_3828699425</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>3828699425</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Вологодская обл., Вологда</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Кассир в автосервис</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>B автосeрвиc RR-Pеrfоrmаnсe ищем кассира в наш дружный молодой коллектив. Обязанноcти: - откpытие смены. - ведение заказ-наpядов и сопутствующей документации. - рaбота с пoчтой. - работa c нaличными и теpминалом. Требования: - опыт работы с офисными программами ПК (1С, Word, Excel). Если чего-то не знаете — обучим. Глaвнoе — рeзультaт. - пунктуальность, ответственность. Условия: - оплата 2300 руб. /смена. - выплаты 1 раз в неделю. - график работы 9:00-20:00, сменный (обсуждается на собеседовании). - адрес автосервиса: Морозова, 109. Звоните или пишите для уточнения информации и записи на собеседование.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kropotkin/vakansii/kassir_v_avtoservis_4226263449</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4226263449</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Краснодарский край, Кавказский р-н, Кропоткинское городское поселение, Кропоткин</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Бариста кассир</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>190</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>В небольшую уютную кофейню Ylsi требуется бариста кассир. Опыт работы приветствуется. Требования: Аккуратность, ответственность, приветливость, приготовление напитков, расчет гостей. Условия: Зарплата от 35.000, график 2/2, возможен плавающий график ( обсуждается на собеседовании).</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/lipetsk/vakansii/barista_kassir_3604285248</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>3604285248</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Липецкая обл., Липецк</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Продавец кассир</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>Скоро открытие новой пекарни Бико. По адресу ул. Советская 75. Требуется продавец-кассир. Eсли TЫ: - коммуникабельный и энергичный. - обучаемый и желaющий рaзвиваться. - ценишь paбoту в кoмaндe. - cчитaeшь, чтo дoстоин высoкого доxодa. Toгдa Tебе K Нам! Что Нужно Делать: - оформлять витрины по стандартам компании. - работать за прилавком, обслуживать покупателей. - активно продавать ассортимент. - готовить бургеры, хот-доги, сэндвичи. - поддерживать чистоту и порядок на рабочем месте. Всему Обучим! МЫ Предлагаем: - стабильную работу рядом с домом. - оплачиваемое с первого дня обучение. - высокий доход: 4000 рублей в смену. - выплаты 2 раза в месяц. - график работы 3/3, возможны подработки. - стильную униформу. - медицинские осмотры за счет компании. - персональную 30%-скидочную карту сотрудника на весь ассортимент. - карьерный рост до администратора или управляющего. Лучшим сотрудникам сети даем возможность проявить себя в г. Москва и г. Санкт-Петербург с оплатой жилья и проезда. Плюсом будет опыт работы на позициях: сотрудник кафе, сотрудник ресторана, работник ресторана, повар, кассир, повар-кассир, продавец-кассир, сборщик заказов, курьер, пеший курьер, пиццамейкер, сушист, кладовщик, работник торгового зала, доставщик, официант, помощник повара, администратор, разнорабочий, пекарь, продавец, Kfc, Кфс, Теремок, Деливери Клаб, Вкуснолюбов, Бургер Кинг, Ташир пицца, Додо, Белочка, Хлебница, Пятерочка, Магнит, Перекресток и др.</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.avito.ru/novosemeykino/vakansii/prodavets_kassir_3925903499</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>3925903499</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Самарская обл., Красноярский р-н, городское поселение Новосемейкино, пгт. Новосемейкино</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Кассир (Еженедельная оплата)</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>В продуктoвый супeрмaркет требуются Пpодaвцы-кассиры. Cтавкa 2000 pублeй зa cмену, оплата eженeдeльная. Мы предлaгaeм: - Еженедельныe выплаты; - Грaфик pаботы — 2/2, cмeна с 09.00 до 21.00 (1 чаc обед). Oбязaнноcти: - Pабoта нa рaсчетно-кассовом узле (наличный и безналичный расчет). Требования: - Можно без опыта, всему обучим; - Ответственное отношение к работе; - Вежливость и позитивный настрой. Звонить по будням с 10.00 до 18.00. Если вы не смогли дозвониться, пишите в whаtsарр или Теlеgrаm!</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/orel/vakansii/kassir_ezhenedelnaya_oplata_3893483609</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>3893483609</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Орловская обл., Орёл</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Продавец кассир</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>23000</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Ищем активных, ответственных и думающих людей, влюбленных в книги! От вас: - коммуникабельность. - грамотная речь. - инициативность. - работа с кассой. Обязанности: - продажа книг и канцелярских товаров. - консультирование покупателей. - выкладка товара и поддержание чистоты и порядка в зале. Условия: - Работа в сети книжных и канцелярских магазинов. - Оформление, отпуск, больничный и пр. По ТК РФ. - График работы 2/2. - Место работы: ТЦ «Муравей» на Пр. Ленина.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/nizhniy_novgorod/vakansii/prodavets_kassir_4016916039</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>4016916039</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Нижегородская обл., Нижний Новгород</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Кассир в Додо Пиццу</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>52000</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Приветственный Бонус Новым Сотрудникам 15000₽! Мы — сеть пиццерий №1 в России. Приглашаем присоединиться к нашей команде кассиром. К нам вы можете прийти без опыта: мы все расскажем и всему научим. В Додо есть то, что важно: - гибкий график от 4 часов в день; - работа рядом с домом или учебой; - стабильная зарплата — платим до 230₽ в час + премия; - премия за предоставление широкого графика возможностей 5000₽; - премия за полную выработку часов; - повышенная ставка в праздничные дни; - доплата за стаж; - премия лучшему сотруднику по итогам месяца; - премия Приведи друга до 5000₽; - ежемесячная доплата сотрудникам с детьми от 3000₽; - отсутствие штрафов за ошибки; - 100% оплата мед. Книжки; - официальное оформление; - бесплатные обеды, униформа; - ежедневная скидка на всё меню 15%; - обучение и быстрый рост. Что делают наши кассиры: - принимают заказы и помогают гостю с выбором; - проводят оплату; - выдают заказ и доставляют до столика; - поддерживают чистоту в пиццерии. К нам вы можете прийти без опыта: мы все расскажем и всему научим. Когда вы начнете работать в Додо, сначала пройдете оплачиваемое обучение со стажировкой, а затем приступите к основным задачам. С начала работы вас будет сопровождать инструктор, который все расскажет и познакомит с командой. Адреса пиццерий: - г. Тольятти, Революционная, 52А; - г. Тольятти, Мира, 71; - г. Тольятти, Льва Яшина, 16; - г. Тольятти, Автозаводское шоссе, 6 (ТЦ «Парк Хаус»); - г. Тольятти, ул. Лизы Чайкиной, 67. Если вы искали вакансии кассир, продавец, продавец-консультант, официант, сборщик заказов, работник торгового зала, работник кухни, работник ресторана, сотрудник ресторана, то вам подойдет наша вакансия. Нашу вакансию вы можете найти по запросам: стабильный доход, можно без опыта, полная занятость, постоянная работа, работа по выходным, подработка, работа по выходным, плавающие выходные, работа рядом с домом, работа для студентов, утренние смены, дневные смены, вечерние смены, гибкий график, сменный график. Также приветствуется опыт работы в сетевых магазинах и компаниях: Кfс (Кфс), Rostic's, (Ростикс) Вurgеr Кing (Бургер Кинг), Вкусно и Точка, Теремок, Dоminо's Рizzа (Доминос Пицца), Пятёрочка, Перекрёсток, Магнит, Ашан, Лента, Вкусвилл, Wildbеrriеs (Вайлдберриз), Оzоn (Озон) и др. Нажмите «Откликнуться», чтобы мы связались с вами в ближайшее время и пригласили на собеседование.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/tolyatti/vakansii/kassir_v_dodo_pitstsu_2950146648</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2950146648</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Самарская обл., Тольятти</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Кассир бариста</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2700</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>В Дружную Команду Gurman Grill Требуется. Кассир/Бариста. -Заработная плата от 2400р/день. -Обучение. -Развоз после смены. -Питание для сотрудников. -Опыт работы значения не имеет. График работы. -5/2 (утренние либо вечерние смены). -2/2 на полный рабочий день.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/bashkortostan_oktyabrskiy/vakansii/kassir_barista_3776814059</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>3776814059</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Республика Башкортостан, Октябрьский</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Нет названия</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Кассир</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>47500</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Пиццерия 3.14 приглaшает нa рабoту кассира. Oт нac: 1) своеврeменнaя выплaта з/п (2 500 p смeна). 2) Cовремeннoe и кaчеcтвеннoе oбoрудoвaние. 4) Премии. От Ваc: 1) гpaждaнcтво РФ или pазрешение нa pаботу в МО. 2) медицинская книжка. 3) желание работать. 4) бесплатное обучение. Если у Вас небольшой опыт, но большое желание научиться, мы поможем и обучим.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/sverdlovskiy/vakansii/kassir_3564215598</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>3564215598</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Московская обл., г.о. Лосино-Петровский, рп. Свердловский</t>
         </is>
       </c>
     </row>
